--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
     <sheet name="dhjsfkgfks" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -127,14 +127,17 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>Date: 18.03.2021</t>
+    <t>Date: 01.05.2021</t>
+  </si>
+  <si>
+    <t>Mokles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,25 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,20 +531,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,50 +604,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -638,12 +647,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -683,7 +686,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -733,7 +736,7 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +786,7 @@
         <xdr:cNvPr id="16" name="Straight Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -833,7 +836,7 @@
         <xdr:cNvPr id="17" name="Straight Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -883,7 +886,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +936,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,7 +986,7 @@
         <xdr:cNvPr id="8" name="Straight Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1036,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1083,7 +1086,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A810E-B364-491B-AB34-AE585B8D27E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A810E-B364-491B-AB34-AE585B8D27E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +1098,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1133,7 +1136,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAD3A6-FB1B-45D2-BDBE-713A9FCBE3DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAD3A6-FB1B-45D2-BDBE-713A9FCBE3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1145,7 +1148,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1188,7 +1191,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1241,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1291,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1341,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1388,7 +1391,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1446,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1496,7 @@
         <xdr:cNvPr id="8" name="Straight Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1546,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1596,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1646,7 @@
         <xdr:cNvPr id="11" name="Straight Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,7 +1696,7 @@
         <xdr:cNvPr id="12" name="Straight Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1746,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1798,7 +1801,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1848,7 +1851,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1901,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1948,7 +1951,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2006,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2053,7 +2056,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2111,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2161,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2211,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2261,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2311,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2361,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2411,7 @@
         <xdr:cNvPr id="8" name="Straight Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2458,7 +2461,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2508,7 +2511,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A810E-B364-491B-AB34-AE585B8D27E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A810E-B364-491B-AB34-AE585B8D27E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2520,7 +2523,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2558,7 +2561,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAD3A6-FB1B-45D2-BDBE-713A9FCBE3DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAD3A6-FB1B-45D2-BDBE-713A9FCBE3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2573,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2613,7 +2616,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2666,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2713,7 +2716,7 @@
         <xdr:cNvPr id="4" name="Straight Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2763,7 +2766,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2816,7 @@
         <xdr:cNvPr id="6" name="Straight Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F693EA6-49EB-42D1-B3CA-F15B26A03B41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2866,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F56342-A68C-4CDA-AD91-6E5E5C5CBD6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2913,7 +2916,7 @@
         <xdr:cNvPr id="8" name="Straight Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334CB43E-1331-4297-A64C-0895C28A3BBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2966,7 @@
         <xdr:cNvPr id="9" name="Straight Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D774EF-0DA8-4AF5-A477-477DFA29C2B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3016,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A810E-B364-491B-AB34-AE585B8D27E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F2A810E-B364-491B-AB34-AE585B8D27E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3025,7 +3028,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3063,7 +3066,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAD3A6-FB1B-45D2-BDBE-713A9FCBE3DE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBEAD3A6-FB1B-45D2-BDBE-713A9FCBE3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3075,7 +3078,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3353,21 +3356,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="6" customWidth="1"/>
@@ -3382,75 +3385,75 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3458,17 +3461,17 @@
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
     </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>536</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3477,17 +3480,17 @@
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1">
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>1809</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3496,17 +3499,17 @@
       <c r="I7" s="21"/>
       <c r="J7" s="21"/>
     </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1583</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3515,17 +3518,17 @@
       <c r="I8" s="21"/>
       <c r="J8" s="21"/>
     </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>530</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3534,17 +3537,17 @@
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
     </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>185</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3555,17 +3558,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>100</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3574,14 +3577,14 @@
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3591,7 +3594,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -3603,7 +3606,7 @@
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -3615,7 +3618,7 @@
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -3627,7 +3630,7 @@
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
@@ -3637,37 +3640,37 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1">
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -3677,13 +3680,13 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -3691,11 +3694,11 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -3707,7 +3710,7 @@
       <c r="I21" s="21"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -3719,7 +3722,7 @@
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -3731,7 +3734,7 @@
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -3743,7 +3746,7 @@
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:11" ht="37.5" customHeight="1">
+    <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -3755,7 +3758,7 @@
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -3767,7 +3770,7 @@
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -3779,76 +3782,76 @@
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:11" ht="31.5">
-      <c r="A28" s="45" t="s">
+    <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="1:11" ht="18">
-      <c r="A29" s="46" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75">
-      <c r="A30" s="47" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A31" s="47" t="s">
+    <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.95" customHeight="1">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3856,17 +3859,17 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10" ht="27.95" customHeight="1">
+    <row r="33" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>536</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3875,17 +3878,17 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10" ht="27.95" customHeight="1">
+    <row r="34" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>1809</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3894,17 +3897,17 @@
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
     </row>
-    <row r="35" spans="1:10" ht="27.95" customHeight="1">
+    <row r="35" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21"/>
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1583</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3913,17 +3916,17 @@
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
     </row>
-    <row r="36" spans="1:10" ht="27.95" customHeight="1">
+    <row r="36" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
       <c r="B36" s="21"/>
       <c r="C36" s="21"/>
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>530</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3932,17 +3935,17 @@
       <c r="I36" s="21"/>
       <c r="J36" s="21"/>
     </row>
-    <row r="37" spans="1:10" ht="27.95" customHeight="1">
+    <row r="37" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
       <c r="B37" s="21"/>
       <c r="C37" s="21"/>
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>185</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3951,17 +3954,17 @@
       <c r="I37" s="21"/>
       <c r="J37" s="21"/>
     </row>
-    <row r="38" spans="1:10" ht="27.95" customHeight="1">
+    <row r="38" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
       <c r="C38" s="21"/>
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>100</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3970,14 +3973,14 @@
       <c r="I38" s="21"/>
       <c r="J38" s="21"/>
     </row>
-    <row r="39" spans="1:10" ht="27.95" customHeight="1">
+    <row r="39" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -3987,7 +3990,7 @@
       <c r="I39" s="21"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="21"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
@@ -3999,7 +4002,7 @@
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="21"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
@@ -4011,7 +4014,7 @@
       <c r="I41" s="21"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
@@ -4023,7 +4026,7 @@
       <c r="I42" s="21"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -4033,37 +4036,37 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
@@ -4073,13 +4076,13 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4087,32 +4090,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4127,6 +4110,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4135,14 +4138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A35" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -4156,77 +4159,77 @@
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4234,17 +4237,17 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>68</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4253,17 +4256,17 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1">
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>135</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4272,17 +4275,17 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>53</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4291,17 +4294,17 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="57">
         <v>2</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4310,17 +4313,17 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="57">
         <v>5</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4329,15 +4332,15 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4346,14 +4349,14 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4363,7 +4366,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4375,7 +4378,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4387,7 +4390,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -4399,79 +4402,79 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="58" t="s">
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="55" t="s">
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4483,7 +4486,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4495,7 +4498,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4507,7 +4510,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4519,7 +4522,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4531,7 +4534,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4543,73 +4546,73 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="63" t="s">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-    </row>
-    <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="64" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="65" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="66" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-    </row>
-    <row r="31" spans="1:10" ht="20.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4617,17 +4620,17 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25">
+    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4636,17 +4639,17 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="20.25">
+    <row r="33" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4655,17 +4658,17 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="20.25">
+    <row r="34" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4674,17 +4677,17 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="20.25">
+    <row r="35" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4693,17 +4696,17 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="20.25">
+    <row r="36" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4712,15 +4715,15 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="20.25">
+    <row r="37" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4729,14 +4732,14 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="20.25">
+    <row r="38" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4746,7 +4749,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -4758,7 +4761,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -4770,7 +4773,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -4782,79 +4785,79 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="58" t="s">
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="52" t="s">
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -4866,7 +4869,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4880,30 +4883,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4920,6 +4899,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4929,14 +4932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
@@ -4950,77 +4953,77 @@
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="66" t="s">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5028,17 +5031,17 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>44</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5047,17 +5050,17 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1">
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>118</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5066,17 +5069,17 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>510</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5085,15 +5088,15 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5102,15 +5105,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5119,15 +5122,15 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5136,14 +5139,14 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5153,7 +5156,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -5165,7 +5168,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -5177,7 +5180,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -5189,75 +5192,75 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="61" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10" s="4" customFormat="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -5269,7 +5272,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -5281,7 +5284,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -5293,7 +5296,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -5305,7 +5308,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -5317,7 +5320,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -5329,73 +5332,73 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="31.5">
-      <c r="A27" s="63" t="s">
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
-    </row>
-    <row r="28" spans="1:10" ht="18">
-      <c r="A28" s="64" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+    </row>
+    <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-    </row>
-    <row r="29" spans="1:10" ht="18.75">
-      <c r="A29" s="65" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="66" t="s">
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-    </row>
-    <row r="31" spans="1:10" ht="23.25">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5403,17 +5406,17 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="23.25">
+    <row r="32" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="57">
         <v>44</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5422,17 +5425,17 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="23.25">
+    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>118</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5441,17 +5444,17 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="23.25">
+    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>510</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5460,15 +5463,15 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="23.25">
+    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5477,15 +5480,15 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="23.25">
+    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5494,15 +5497,15 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="23.25">
+    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5511,14 +5514,14 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="23.25">
+    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5528,7 +5531,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5540,7 +5543,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -5552,7 +5555,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -5564,75 +5567,75 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75">
-      <c r="A42" s="57" t="s">
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -5644,7 +5647,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5658,24 +5661,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5688,694 +5683,6 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
-  </mergeCells>
-  <printOptions verticalCentered="1"/>
-  <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:J47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="3" spans="1:10" ht="18">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-    </row>
-    <row r="5" spans="1:10" ht="23.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="23.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="23.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="23.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="23.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="23.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="23.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="31.5">
-      <c r="A28" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-    </row>
-    <row r="29" spans="1:10" ht="18">
-      <c r="A29" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-    </row>
-    <row r="30" spans="1:10" ht="18.75">
-      <c r="A30" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-    </row>
-    <row r="31" spans="1:10" ht="18.75">
-      <c r="A31" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-    </row>
-    <row r="32" spans="1:10" ht="20.25">
-      <c r="A32" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="60"/>
-      <c r="G32" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" ht="23.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="15">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="68">
-        <v>30</v>
-      </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="15">
-        <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
-        <v>30000</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" ht="23.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="15">
-        <v>500</v>
-      </c>
-      <c r="E34" s="68">
-        <v>35</v>
-      </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="15">
-        <f t="shared" si="0"/>
-        <v>17500</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" ht="23.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="15">
-        <v>100</v>
-      </c>
-      <c r="E35" s="68">
-        <v>425</v>
-      </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="15">
-        <f t="shared" si="0"/>
-        <v>42500</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" ht="23.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="15">
-        <v>50</v>
-      </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" ht="20.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="15">
-        <v>20</v>
-      </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="15">
-        <f>SUM(D37*E37)</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="15">
-        <v>10</v>
-      </c>
-      <c r="E38" s="59">
-        <v>100</v>
-      </c>
-      <c r="F38" s="59"/>
-      <c r="G38" s="15">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" ht="20.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="71" t="s">
-        <v>10</v>
-      </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16">
-        <f>SUM(G33:G38)</f>
-        <v>91000</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" ht="15.75">
-      <c r="A43" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="57" t="s">
-        <v>8</v>
-      </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-    </row>
-  </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="A17:B18"/>
@@ -6395,13 +5702,709 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
   </mergeCells>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A28" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="58"/>
+      <c r="G32" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="57">
+        <v>30</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="15">
+        <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
+        <v>30000</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="15">
+        <v>500</v>
+      </c>
+      <c r="E34" s="57">
+        <v>35</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="15">
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="15">
+        <v>100</v>
+      </c>
+      <c r="E35" s="57">
+        <v>425</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="15">
+        <f t="shared" si="0"/>
+        <v>42500</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="15">
+        <v>50</v>
+      </c>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="15">
+        <v>20</v>
+      </c>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="15">
+        <f>SUM(D37*E37)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="15">
+        <v>10</v>
+      </c>
+      <c r="E38" s="68">
+        <v>100</v>
+      </c>
+      <c r="F38" s="68"/>
+      <c r="G38" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="72"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16">
+        <f>SUM(G33:G38)</f>
+        <v>91000</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="67"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6411,187 +6414,187 @@
       <selection sqref="A1:J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-    </row>
-    <row r="2" spans="1:10" ht="18">
-      <c r="A2" s="64" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="81">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="81">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="81">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="81">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="82" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
-    </row>
-    <row r="23" spans="1:10" ht="18.75">
-      <c r="A23" s="65" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
+    </row>
+    <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-    </row>
-    <row r="24" spans="1:10" ht="18.75">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.25">
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
@@ -6600,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6611,15 +6614,15 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" ht="23.25">
+    <row r="26" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6628,17 +6631,17 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" ht="23.25">
+    <row r="27" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="57">
         <v>30</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6647,15 +6650,15 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10" ht="23.25">
+    <row r="28" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6664,17 +6667,17 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" ht="23.25">
+    <row r="29" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="57">
         <v>5</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6683,15 +6686,15 @@
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="1:10" ht="20.25">
+    <row r="30" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6700,17 +6703,17 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10" ht="20.25">
+    <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6719,7 +6722,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="20.25">
+    <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -6736,7 +6739,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -6748,7 +6751,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -6760,7 +6763,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -6772,61 +6775,61 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75">
-      <c r="A36" s="57" t="s">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
-    </row>
-    <row r="39" spans="1:10" ht="15.75">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6834,29 +6837,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6873,6 +6859,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6881,14 +6884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A31" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="6" customWidth="1"/>
@@ -6903,75 +6906,75 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6979,17 +6982,17 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>217</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -6998,17 +7001,17 @@
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1">
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>836</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7017,17 +7020,17 @@
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1040</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7036,17 +7039,17 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>200</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7055,17 +7058,17 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>300</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7076,17 +7079,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>500</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7095,14 +7098,14 @@
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7112,7 +7115,7 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -7124,7 +7127,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -7136,7 +7139,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -7148,7 +7151,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="32"/>
@@ -7158,37 +7161,37 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1">
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="32"/>
@@ -7198,13 +7201,13 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -7212,11 +7215,11 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -7228,7 +7231,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -7240,7 +7243,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -7252,7 +7255,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -7264,7 +7267,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="37.5" customHeight="1">
+    <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -7276,7 +7279,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -7288,7 +7291,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -7300,76 +7303,76 @@
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="31.5">
-      <c r="A28" s="45" t="s">
+    <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="1:11" ht="18">
-      <c r="A29" s="46" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75">
-      <c r="A30" s="47" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A31" s="47" t="s">
+    <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.95" customHeight="1">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7377,17 +7380,17 @@
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" ht="23.25">
+    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>217</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7396,17 +7399,17 @@
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" ht="23.25">
+    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>836</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7415,17 +7418,17 @@
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" ht="23.25">
+    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1040</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7434,17 +7437,17 @@
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" ht="23.25">
+    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>200</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7453,17 +7456,17 @@
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" ht="23.25">
+    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>300</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7472,17 +7475,17 @@
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" ht="23.25">
+    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>500</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7491,14 +7494,14 @@
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25">
+    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7508,7 +7511,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7520,7 +7523,7 @@
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -7532,7 +7535,7 @@
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -7544,7 +7547,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="32"/>
@@ -7554,37 +7557,37 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
@@ -7594,13 +7597,13 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -7608,12 +7611,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7626,28 +7651,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7655,26 +7658,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N40" sqref="M39:N40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="6" customWidth="1"/>
@@ -7689,75 +7692,75 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
-    <row r="2" spans="1:11" ht="18">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
-    <row r="3" spans="1:11" ht="18">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1">
+    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7765,91 +7768,89 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1">
+    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
-        <v>429</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="42">
+        <v>200</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>429000</v>
+        <v>200000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1">
+    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
-        <v>859</v>
-      </c>
-      <c r="F7" s="49"/>
+      <c r="E7" s="42">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>429500</v>
+        <v>700000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1">
+    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
-        <v>1385</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>138500</v>
+        <v>100000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1">
+    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
-        <v>60</v>
-      </c>
-      <c r="F9" s="49"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1">
+    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7860,15 +7861,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1">
+    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7877,14 +7878,14 @@
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1">
+    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7894,7 +7895,7 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -7906,7 +7907,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -7918,7 +7919,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -7930,7 +7931,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="32"/>
@@ -7940,37 +7941,37 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1">
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="32"/>
@@ -7980,13 +7981,13 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="H19" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -7994,11 +7995,11 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -8010,7 +8011,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -8022,7 +8023,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -8034,7 +8035,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -8046,7 +8047,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="37.5" customHeight="1">
+    <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -8058,7 +8059,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -8070,7 +8071,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -8082,76 +8083,76 @@
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="31.5">
-      <c r="A28" s="45" t="s">
+    <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-    </row>
-    <row r="29" spans="1:11" ht="18">
-      <c r="A29" s="46" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75">
-      <c r="A30" s="47" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="40.5" customHeight="1">
-      <c r="A31" s="47" t="s">
+    <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.95" customHeight="1">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+    </row>
+    <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8159,91 +8160,89 @@
       <c r="I32" s="33"/>
       <c r="J32" s="33"/>
     </row>
-    <row r="33" spans="1:10" ht="23.25">
+    <row r="33" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
-        <v>429</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="E33" s="42">
+        <v>200</v>
+      </c>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>429000</v>
+        <v>200000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
       <c r="J33" s="33"/>
     </row>
-    <row r="34" spans="1:10" ht="23.25">
+    <row r="34" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
-        <v>859</v>
-      </c>
-      <c r="F34" s="49"/>
+      <c r="E34" s="42">
+        <v>1400</v>
+      </c>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>429500</v>
+        <v>700000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
       <c r="J34" s="33"/>
     </row>
-    <row r="35" spans="1:10" ht="23.25">
+    <row r="35" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
-        <v>1385</v>
-      </c>
-      <c r="F35" s="49"/>
+      <c r="E35" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>138500</v>
+        <v>100000</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="33"/>
     </row>
-    <row r="36" spans="1:10" ht="23.25">
+    <row r="36" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
-        <v>60</v>
-      </c>
-      <c r="F36" s="49"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
       <c r="J36" s="33"/>
     </row>
-    <row r="37" spans="1:10" ht="23.25">
+    <row r="37" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8252,15 +8251,15 @@
       <c r="I37" s="33"/>
       <c r="J37" s="33"/>
     </row>
-    <row r="38" spans="1:10" ht="23.25">
+    <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8269,14 +8268,14 @@
       <c r="I38" s="33"/>
       <c r="J38" s="33"/>
     </row>
-    <row r="39" spans="1:10" ht="20.25">
+    <row r="39" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -8286,7 +8285,7 @@
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -8298,7 +8297,7 @@
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -8310,7 +8309,7 @@
       <c r="I41" s="33"/>
       <c r="J41" s="33"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -8322,7 +8321,7 @@
       <c r="I42" s="33"/>
       <c r="J42" s="33"/>
     </row>
-    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75">
+    <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="32"/>
@@ -8332,37 +8331,37 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
@@ -8372,13 +8371,13 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="H46" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -8386,12 +8385,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8404,28 +8425,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -127,10 +127,10 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>Date: 01.05.2021</t>
+    <t>Date: 06.05.2021</t>
   </si>
   <si>
-    <t>Mokles</t>
+    <t>Md Jafor Iqbal</t>
   </si>
 </sst>
 </file>
@@ -516,6 +516,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,69 +550,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,26 +574,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,6 +641,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3144,7 +3144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3179,7 +3179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>536</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>1809</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1583</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>530</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>185</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>100</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>536</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>1809</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1583</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>530</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>185</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>100</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,12 +4090,32 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4110,26 +4130,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>68</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>135</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>53</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="68">
         <v>2</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="68">
         <v>5</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="59">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="59">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="59">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="59">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="59">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,6 +4883,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4899,30 +4923,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>44</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>118</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>510</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="68">
         <v>44</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>118</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>510</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,16 +5661,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5683,24 +5691,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>30</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>35</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="68">
         <v>425</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="59">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,12 +6353,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6371,32 +6397,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="68">
         <v>30</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="68">
         <v>5</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="59">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,12 +6837,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6859,23 +6876,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>217</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>836</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1040</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>200</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>300</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>500</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>217</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>836</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1040</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>200</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>300</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>500</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,22 +7611,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -7639,18 +7641,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,63 +7693,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,8 +7759,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7775,13 +7775,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
-        <v>200</v>
-      </c>
-      <c r="F6" s="42"/>
+      <c r="E6" s="49">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7794,10 +7794,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>1400</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>700000</v>
@@ -7813,10 +7813,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1000</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>100000</v>
@@ -7832,8 +7832,8 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7849,8 +7849,8 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7868,8 +7868,8 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7882,14 +7882,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7941,35 +7941,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7981,11 +7981,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7995,9 +7995,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8084,63 +8084,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8149,10 +8149,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8167,13 +8167,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
-        <v>200</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="E33" s="49">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8186,10 +8186,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>1400</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>700000</v>
@@ -8205,10 +8205,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1000</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>100000</v>
@@ -8224,8 +8224,8 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8241,8 +8241,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8258,8 +8258,8 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8272,14 +8272,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8331,35 +8331,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8371,11 +8371,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -8385,22 +8385,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -8413,18 +8415,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -127,10 +127,10 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
-    <t>Date: 06.05.2021</t>
+    <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Md Jafor Iqbal</t>
+    <t>Date: 09.05.2021</t>
   </si>
 </sst>
 </file>
@@ -516,25 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,20 +531,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,50 +604,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -641,12 +647,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>536</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>1809</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1583</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>530</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>185</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>100</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>536</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>1809</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1583</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>530</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>185</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>100</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,32 +4090,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4130,6 +4110,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>68</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>135</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>53</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="57">
         <v>2</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="57">
         <v>5</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,30 +4883,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4923,6 +4899,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>44</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>118</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>510</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="57">
         <v>44</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>118</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>510</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,6 +5661,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5673,34 +5701,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>30</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>35</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="57">
         <v>425</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="68">
         <v>100</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,20 +6353,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6379,24 +6389,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="57">
         <v>30</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="57">
         <v>5</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,29 +6837,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6876,6 +6859,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>217</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>836</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1040</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>200</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>300</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>500</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>217</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>836</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1040</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>200</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>300</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>500</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,12 +7611,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7629,28 +7651,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,63 +7693,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="A4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,8 +7759,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7775,13 +7775,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="42">
+        <v>720</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>1000000</v>
+        <v>720000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7794,13 +7794,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
-        <v>1400</v>
-      </c>
-      <c r="F7" s="49"/>
+      <c r="E7" s="42">
+        <v>2300</v>
+      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>1150000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7813,13 +7813,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="42">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7832,8 +7832,8 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7849,8 +7849,8 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7868,8 +7868,8 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7882,14 +7882,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7941,35 +7941,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7981,11 +7981,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="H19" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7995,9 +7995,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8084,63 +8084,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="A31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8149,10 +8149,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8167,13 +8167,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="E33" s="42">
+        <v>720</v>
+      </c>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>1000000</v>
+        <v>720000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8186,13 +8186,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
-        <v>1400</v>
-      </c>
-      <c r="F34" s="49"/>
+      <c r="E34" s="42">
+        <v>2300</v>
+      </c>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>700000</v>
+        <v>1150000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8205,13 +8205,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="49"/>
+      <c r="E35" s="42">
+        <v>1300</v>
+      </c>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>130000</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8224,8 +8224,8 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8241,8 +8241,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8258,8 +8258,8 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8272,14 +8272,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8331,35 +8331,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8371,11 +8371,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="H46" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -8385,12 +8385,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8403,28 +8425,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="8" r:id="rId7"/>
-    <sheet name="dhjsfkgfks" sheetId="9" r:id="rId8"/>
+    <sheet name="bKash" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -130,7 +130,7 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 09.05.2021</t>
+    <t>Date: 12.05.2021</t>
   </si>
 </sst>
 </file>
@@ -516,6 +516,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,69 +550,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,26 +574,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,6 +641,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>536</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>1809</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1583</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>530</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>185</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>100</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>536</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>1809</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1583</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>530</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>185</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>100</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,12 +4090,32 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4110,26 +4130,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>68</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>135</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>53</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="68">
         <v>2</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="68">
         <v>5</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="59">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="59">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="59">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="59">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="59">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,6 +4883,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4899,30 +4923,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>44</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>118</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>510</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="68">
         <v>44</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>118</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>510</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,16 +5661,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5683,24 +5691,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>30</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>35</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="68">
         <v>425</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="59">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,12 +6353,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6371,32 +6397,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="68">
         <v>30</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="68">
         <v>5</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="59">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,12 +6837,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6859,23 +6876,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>217</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>836</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1040</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>200</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>300</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>500</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>217</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>836</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1040</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>200</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>300</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>500</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,22 +7611,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -7639,18 +7641,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,63 +7693,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,8 +7759,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7775,13 +7775,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
-        <v>720</v>
-      </c>
-      <c r="F6" s="42"/>
+      <c r="E6" s="49">
+        <v>910</v>
+      </c>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>720000</v>
+        <v>910000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7794,13 +7794,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
-        <v>2300</v>
-      </c>
-      <c r="F7" s="42"/>
+      <c r="E7" s="49">
+        <v>2900</v>
+      </c>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>1150000</v>
+        <v>1450000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7813,13 +7813,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
-        <v>1300</v>
-      </c>
-      <c r="F8" s="42"/>
+      <c r="E8" s="49">
+        <v>1400</v>
+      </c>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7832,8 +7832,8 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7849,8 +7849,8 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7868,8 +7868,8 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7882,14 +7882,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7941,35 +7941,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7981,11 +7981,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7995,9 +7995,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8084,63 +8084,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8149,10 +8149,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8167,13 +8167,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
-        <v>720</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="E33" s="49">
+        <v>910</v>
+      </c>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>720000</v>
+        <v>910000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8186,13 +8186,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
-        <v>2300</v>
-      </c>
-      <c r="F34" s="42"/>
+      <c r="E34" s="49">
+        <v>2900</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>1150000</v>
+        <v>1450000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8205,13 +8205,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
-        <v>1300</v>
-      </c>
-      <c r="F35" s="42"/>
+      <c r="E35" s="49">
+        <v>1400</v>
+      </c>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>130000</v>
+        <v>140000</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8224,8 +8224,8 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8241,8 +8241,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8258,8 +8258,8 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8272,14 +8272,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8331,35 +8331,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8371,11 +8371,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -8385,22 +8385,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -8413,18 +8415,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -130,7 +130,7 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 12.05.2021</t>
+    <t>Date: 13.05.2021</t>
   </si>
 </sst>
 </file>
@@ -516,25 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,20 +531,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,50 +604,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -641,12 +647,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>536</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>1809</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1583</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>530</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>185</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>100</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>536</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>1809</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1583</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>530</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>185</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>100</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,32 +4090,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4130,6 +4110,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>68</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>135</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>53</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="57">
         <v>2</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="57">
         <v>5</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,30 +4883,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4923,6 +4899,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>44</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>118</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>510</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="57">
         <v>44</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>118</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>510</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,6 +5661,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5673,34 +5701,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>30</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>35</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="57">
         <v>425</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="68">
         <v>100</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,20 +6353,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6379,24 +6389,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="57">
         <v>30</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="57">
         <v>5</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,29 +6837,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6876,6 +6859,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>217</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>836</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1040</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>200</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>300</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>500</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>217</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>836</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1040</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>200</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>300</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>500</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,12 +7611,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7629,28 +7651,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,63 +7693,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7759,8 +7759,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7775,13 +7775,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
-        <v>910</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7794,13 +7794,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
-        <v>2900</v>
-      </c>
-      <c r="F7" s="49"/>
+      <c r="E7" s="42">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7813,13 +7813,11 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
-        <v>1400</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7832,8 +7830,8 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7849,8 +7847,8 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7868,8 +7866,8 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7882,14 +7880,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7941,35 +7939,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7981,11 +7979,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7995,9 +7993,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8084,63 +8082,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8149,10 +8147,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8167,13 +8165,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
-        <v>910</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="E33" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>910000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8186,13 +8184,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
-        <v>2900</v>
-      </c>
-      <c r="F34" s="49"/>
+      <c r="E34" s="42">
+        <v>2000</v>
+      </c>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8205,13 +8203,11 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
-        <v>1400</v>
-      </c>
-      <c r="F35" s="49"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8224,8 +8220,8 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8241,8 +8237,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8258,8 +8254,8 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8272,14 +8268,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>2500000</v>
+        <v>2000000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8331,35 +8327,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8371,11 +8367,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -8385,12 +8381,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8403,28 +8421,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -130,7 +130,7 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 13.05.2021</t>
+    <t>Date: 20.05.2021</t>
   </si>
 </sst>
 </file>
@@ -516,6 +516,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,69 +550,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,26 +574,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,6 +641,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2657,7 +2657,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2757,7 +2757,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2857,7 +2857,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
@@ -2957,7 +2957,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>536</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>1809</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1583</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>530</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>185</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>100</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>536</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>1809</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1583</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>530</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>185</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>100</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,12 +4090,32 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4110,26 +4130,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>68</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>135</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>53</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="68">
         <v>2</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="68">
         <v>5</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="59">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="59">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="59">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="59">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="59">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,6 +4883,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4899,30 +4923,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>44</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>118</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>510</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="68">
         <v>44</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>118</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>510</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,16 +5661,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5683,24 +5691,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>30</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>35</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="68">
         <v>425</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="59">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,12 +6353,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6371,32 +6397,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="68">
         <v>30</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="68">
         <v>5</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="59">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,12 +6837,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6859,23 +6876,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>217</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>836</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1040</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>200</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>300</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>500</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>217</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>836</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1040</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>200</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>300</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>500</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,22 +7611,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -7639,18 +7641,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7671,10 +7671,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,75 +7692,71 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="20"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7768,70 +7764,72 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="42"/>
+      <c r="E6" s="49">
+        <v>320</v>
+      </c>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>1000000</v>
+        <v>320000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
-        <v>2000</v>
-      </c>
-      <c r="F7" s="42"/>
+      <c r="E7" s="49">
+        <v>700</v>
+      </c>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>1000000</v>
+        <v>350000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="E8" s="49">
+        <v>300</v>
+      </c>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7840,15 +7838,15 @@
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7859,15 +7857,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7876,24 +7874,24 @@
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>2000000</v>
+        <v>700000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -7905,7 +7903,7 @@
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -7917,7 +7915,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -7929,7 +7927,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="32"/>
@@ -7939,37 +7937,37 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-    </row>
-    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="24"/>
       <c r="C19" s="32"/>
@@ -7979,13 +7977,13 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -7993,11 +7991,11 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -8009,7 +8007,7 @@
       <c r="I21" s="33"/>
       <c r="J21" s="33"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -8021,7 +8019,7 @@
       <c r="I22" s="33"/>
       <c r="J22" s="33"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -8033,7 +8031,7 @@
       <c r="I23" s="33"/>
       <c r="J23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -8045,7 +8043,7 @@
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
     </row>
-    <row r="25" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -8057,7 +8055,7 @@
       <c r="I25" s="33"/>
       <c r="J25" s="33"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -8069,7 +8067,7 @@
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -8081,76 +8079,73 @@
       <c r="I27" s="33"/>
       <c r="J27" s="33"/>
     </row>
-    <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+    <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+    </row>
+    <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8165,13 +8160,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="E33" s="49">
+        <v>320</v>
+      </c>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>1000000</v>
+        <v>320000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8184,13 +8179,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
-        <v>2000</v>
-      </c>
-      <c r="F34" s="42"/>
+      <c r="E34" s="49">
+        <v>700</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>350000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8203,11 +8198,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
+      <c r="E35" s="49">
+        <v>300</v>
+      </c>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8220,8 +8217,8 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8237,8 +8234,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8254,8 +8251,8 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8268,14 +8265,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>2000000</v>
+        <v>700000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8327,35 +8324,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8367,36 +8364,26 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+  <mergeCells count="33">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -8409,18 +8396,15 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -130,7 +130,7 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 20.05.2021</t>
+    <t>Date: 25.05.2021</t>
   </si>
 </sst>
 </file>
@@ -516,25 +516,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,20 +531,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,50 +604,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -641,12 +647,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>536</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>1809</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1583</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>530</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>185</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>100</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>536</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>1809</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1583</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>530</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>185</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>100</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,32 +4090,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4130,6 +4110,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>68</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>135</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>53</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="57">
         <v>2</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="57">
         <v>5</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,30 +4883,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4923,6 +4899,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>44</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>118</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>510</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="57">
         <v>44</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>118</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>510</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,6 +5661,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5673,34 +5701,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>30</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>35</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="57">
         <v>425</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="68">
         <v>100</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,20 +6353,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6379,24 +6389,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="57">
         <v>30</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="57">
         <v>5</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,29 +6837,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6876,6 +6859,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>217</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>836</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1040</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>200</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>300</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>500</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>217</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>836</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1040</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>200</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>300</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>500</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,12 +7611,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7629,28 +7651,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,60 +7693,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -7755,8 +7755,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7771,13 +7771,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
-        <v>320</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="42">
+        <v>263</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>320000</v>
+        <v>263000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7790,13 +7790,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
-        <v>700</v>
-      </c>
-      <c r="F7" s="49"/>
+      <c r="E7" s="42">
+        <v>889</v>
+      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>350000</v>
+        <v>444500</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7809,13 +7809,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
-        <v>300</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="42">
+        <v>885</v>
+      </c>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>30000</v>
+        <v>88500</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7828,11 +7828,13 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="E9" s="42">
+        <v>40</v>
+      </c>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -7845,8 +7847,8 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7864,11 +7866,13 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+      <c r="E11" s="42">
+        <v>200</v>
+      </c>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
@@ -7878,14 +7882,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7937,35 +7941,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7977,11 +7981,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7991,9 +7995,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8080,60 +8084,60 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
     </row>
     <row r="31" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8142,10 +8146,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8160,13 +8164,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
-        <v>320</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="E33" s="42">
+        <v>263</v>
+      </c>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>320000</v>
+        <v>263000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8179,13 +8183,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
-        <v>700</v>
-      </c>
-      <c r="F34" s="49"/>
+      <c r="E34" s="42">
+        <v>889</v>
+      </c>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>350000</v>
+        <v>444500</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8198,13 +8202,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
-        <v>300</v>
-      </c>
-      <c r="F35" s="49"/>
+      <c r="E35" s="42">
+        <v>885</v>
+      </c>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>30000</v>
+        <v>88500</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8217,11 +8221,13 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="E36" s="42">
+        <v>40</v>
+      </c>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -8234,8 +8240,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8251,11 +8257,13 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
+      <c r="E38" s="42">
+        <v>200</v>
+      </c>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -8265,14 +8273,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8324,35 +8332,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8364,14 +8372,35 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8384,27 +8413,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -130,7 +130,7 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 25.05.2021</t>
+    <t>Date: 27.05.2021</t>
   </si>
 </sst>
 </file>
@@ -516,6 +516,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,69 +550,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,26 +574,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -647,6 +641,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,63 +3386,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3452,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3468,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>536</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3487,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>1809</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3506,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1583</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3525,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>530</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3544,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>185</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3565,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>100</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3581,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3640,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3680,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3694,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3783,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3848,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3866,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>536</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3885,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>1809</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3904,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1583</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3923,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>530</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3942,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>185</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +3961,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>100</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +3977,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4036,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4076,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,12 +4090,32 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4110,26 +4130,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4160,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>68</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4263,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>135</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4282,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>53</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4301,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="68">
         <v>2</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4320,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="68">
         <v>5</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4339,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4353,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4403,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4547,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4609,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4627,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="59">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4646,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="59">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4665,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="59">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4684,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="59">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4703,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="59">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4722,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4736,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4786,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,6 +4883,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4899,30 +4923,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4954,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5038,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="68">
         <v>44</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5057,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="68">
         <v>118</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5076,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="68">
         <v>510</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5095,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5112,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5129,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5143,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5193,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5333,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5395,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5413,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="68">
         <v>44</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5432,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>118</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5451,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>510</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5470,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5487,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5504,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5518,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="69"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5568,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,16 +5661,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5683,24 +5691,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5725,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5793,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5805,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5817,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5829,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5841,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5853,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5864,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5909,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +5964,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6053,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6117,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6135,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="68">
         <v>30</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6154,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="68">
         <v>35</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6173,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="68">
         <v>425</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6192,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6209,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6226,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="59">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="59"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6292,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="58"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,12 +6353,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6371,32 +6397,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6422,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="81">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="80">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="81">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="80">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="80">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="80"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="81">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="80">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6603,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="60"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6621,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6638,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="68">
         <v>30</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6657,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6674,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="68">
         <v>5</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6693,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6710,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="59">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6776,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="58"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="57"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,12 +6837,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6859,23 +6876,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6907,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +6973,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +6989,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="49">
         <v>217</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7008,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="49">
         <v>836</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7027,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="49">
         <v>1040</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7046,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="49">
         <v>200</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7065,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="49">
         <v>300</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7086,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>500</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7102,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7161,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7201,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7215,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7304,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7369,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7387,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="49">
         <v>217</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7406,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="49">
         <v>836</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7425,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="49">
         <v>1040</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7444,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="49">
         <v>200</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7463,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="49">
         <v>300</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7482,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>500</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7498,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7557,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7597,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,22 +7611,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -7639,18 +7641,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,60 +7693,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -7755,8 +7755,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7771,13 +7771,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
-        <v>263</v>
-      </c>
-      <c r="F6" s="42"/>
+      <c r="E6" s="49">
+        <v>338</v>
+      </c>
+      <c r="F6" s="49"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>263000</v>
+        <v>338000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7790,13 +7790,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
-        <v>889</v>
-      </c>
-      <c r="F7" s="42"/>
+      <c r="E7" s="49">
+        <v>1227</v>
+      </c>
+      <c r="F7" s="49"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>444500</v>
+        <v>613500</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7809,13 +7809,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
-        <v>885</v>
-      </c>
-      <c r="F8" s="42"/>
+      <c r="E8" s="49">
+        <v>1284</v>
+      </c>
+      <c r="F8" s="49"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>88500</v>
+        <v>128400</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7828,13 +7828,13 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
-        <v>40</v>
-      </c>
-      <c r="F9" s="42"/>
+      <c r="E9" s="49">
+        <v>176</v>
+      </c>
+      <c r="F9" s="49"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -7847,11 +7847,13 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="E10" s="49">
+        <v>465</v>
+      </c>
+      <c r="F10" s="49"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -7866,10 +7868,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="49">
         <v>200</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="49"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -7882,14 +7884,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7941,35 +7943,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7981,11 +7983,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7995,9 +7997,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8084,60 +8086,60 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8146,10 +8148,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8164,13 +8166,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
-        <v>263</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="E33" s="49">
+        <v>338</v>
+      </c>
+      <c r="F33" s="49"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>263000</v>
+        <v>338000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8183,13 +8185,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
-        <v>889</v>
-      </c>
-      <c r="F34" s="42"/>
+      <c r="E34" s="49">
+        <v>1227</v>
+      </c>
+      <c r="F34" s="49"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>444500</v>
+        <v>613500</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8202,13 +8204,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
-        <v>885</v>
-      </c>
-      <c r="F35" s="42"/>
+      <c r="E35" s="49">
+        <v>1284</v>
+      </c>
+      <c r="F35" s="49"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>88500</v>
+        <v>128400</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8221,13 +8223,13 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
-        <v>40</v>
-      </c>
-      <c r="F36" s="42"/>
+      <c r="E36" s="49">
+        <v>176</v>
+      </c>
+      <c r="F36" s="49"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>8800</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -8240,11 +8242,13 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="49">
+        <v>465</v>
+      </c>
+      <c r="F37" s="49"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8257,10 +8261,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="49">
         <v>200</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -8273,14 +8277,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="51"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
-        <v>800000</v>
+        <v>1100000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8332,35 +8336,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="43"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8372,23 +8376,26 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -8401,18 +8408,15 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -130,7 +130,13 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 27.05.2021</t>
+    <t>Date: 03.06.2021</t>
+  </si>
+  <si>
+    <t>Eleven Lac Fifty Thousand Taka Only.</t>
+  </si>
+  <si>
+    <t>Amount In Words :</t>
   </si>
 </sst>
 </file>
@@ -290,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,25 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -550,20 +543,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,50 +616,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -641,12 +659,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3386,63 +3425,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,8 +3491,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3468,10 +3507,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>536</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3487,10 +3526,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>1809</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3506,10 +3545,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1583</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3525,10 +3564,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>530</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3544,10 +3583,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>185</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3565,10 +3604,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>100</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3581,10 +3620,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3640,35 +3679,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3680,11 +3719,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3694,9 +3733,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3783,63 +3822,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3848,10 +3887,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3866,10 +3905,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>536</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3885,10 +3924,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>1809</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3904,10 +3943,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1583</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3923,10 +3962,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>530</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3942,10 +3981,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>185</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -3961,10 +4000,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>100</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -3977,10 +4016,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4036,35 +4075,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4076,11 +4115,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4090,32 +4129,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4130,6 +4149,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4160,63 +4199,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4265,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4244,10 +4283,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>68</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4263,10 +4302,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>135</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4282,10 +4321,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>53</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4301,10 +4340,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="57">
         <v>2</v>
       </c>
-      <c r="F9" s="68"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4320,10 +4359,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="57">
         <v>5</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4339,8 +4378,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4353,10 +4392,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4403,76 +4442,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="58"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="65"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4547,60 +4586,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4609,10 +4648,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4627,10 +4666,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="59">
+      <c r="E32" s="68">
         <v>68</v>
       </c>
-      <c r="F32" s="59"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4646,10 +4685,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="59">
+      <c r="E33" s="68">
         <v>135</v>
       </c>
-      <c r="F33" s="59"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4665,10 +4704,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="59">
+      <c r="E34" s="68">
         <v>53</v>
       </c>
-      <c r="F34" s="59"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4684,10 +4723,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="59">
+      <c r="E35" s="68">
         <v>2</v>
       </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4703,10 +4742,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="59">
+      <c r="E36" s="68">
         <v>5</v>
       </c>
-      <c r="F36" s="59"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4722,8 +4761,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4736,10 +4775,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4786,76 +4825,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="A45" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="58"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="52"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4883,30 +4922,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4923,6 +4938,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4954,63 +4993,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5059,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="67"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5038,10 +5077,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="57">
         <v>44</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5057,10 +5096,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="57">
         <v>118</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5076,10 +5115,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="57">
         <v>510</v>
       </c>
-      <c r="F8" s="68"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5095,8 +5134,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5112,8 +5151,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5129,8 +5168,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5143,10 +5182,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5193,72 +5232,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="61"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61" t="s">
+      <c r="H16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="70"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5333,60 +5372,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="63"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5395,10 +5434,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="67"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5413,10 +5452,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="57">
         <v>44</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5432,10 +5471,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>118</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5451,10 +5490,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>510</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5470,8 +5509,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5487,8 +5526,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5504,8 +5543,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5518,10 +5557,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="69"/>
+      <c r="E38" s="70"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5568,72 +5607,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="57"/>
+      <c r="B42" s="67"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="57" t="s">
+      <c r="H42" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5661,6 +5700,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5673,34 +5740,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5725,64 +5764,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5793,8 +5832,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5805,8 +5844,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5817,8 +5856,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5829,8 +5868,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5841,8 +5880,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5853,8 +5892,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5864,8 +5903,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5909,52 +5948,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="61"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="61"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -5964,9 +6003,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6053,60 +6092,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="63"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6117,10 +6156,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="60"/>
+      <c r="F32" s="58"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6135,10 +6174,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="57">
         <v>30</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6154,10 +6193,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="57">
         <v>35</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6173,10 +6212,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="57">
         <v>425</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6192,8 +6231,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6209,8 +6248,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6226,10 +6265,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="59">
+      <c r="E38" s="68">
         <v>100</v>
       </c>
-      <c r="F38" s="59"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6292,58 +6331,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="57"/>
+      <c r="B43" s="67"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="57" t="s">
+      <c r="H43" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="58"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="58"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="58"/>
-      <c r="I45" s="58"/>
-      <c r="J45" s="58"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
+      <c r="I46" s="67"/>
+      <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6353,20 +6392,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6379,24 +6428,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6422,177 +6461,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+      <c r="A5" s="82">
         <v>1</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="80">
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="73">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="80"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="73"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="81">
+      <c r="A7" s="82">
         <v>2</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="80">
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="73">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="81">
+      <c r="A9" s="82">
         <v>3</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="80">
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="73">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="80"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="81">
+      <c r="A11" s="82">
         <v>4</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="80">
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="73">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
+      <c r="A13" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="80">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="73">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="80"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6603,10 +6642,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="60" t="s">
+      <c r="E25" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6621,8 +6660,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6638,10 +6677,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="57">
         <v>30</v>
       </c>
-      <c r="F27" s="68"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6657,8 +6696,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6674,10 +6713,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="57">
         <v>5</v>
       </c>
-      <c r="F29" s="68"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6693,8 +6732,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6710,10 +6749,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="59">
+      <c r="E31" s="68">
         <v>2</v>
       </c>
-      <c r="F31" s="59"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6776,58 +6815,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="57" t="s">
+      <c r="H36" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="58"/>
-      <c r="B37" s="58"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="58"/>
-      <c r="J37" s="58"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="58"/>
-      <c r="J38" s="58"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="58"/>
-      <c r="B39" s="58"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="67"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6837,29 +6876,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6876,6 +6898,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6907,63 +6946,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -6973,8 +7012,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -6989,10 +7028,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="42">
         <v>217</v>
       </c>
-      <c r="F6" s="49"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7008,10 +7047,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="42">
         <v>836</v>
       </c>
-      <c r="F7" s="49"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7027,10 +7066,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="42">
         <v>1040</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7046,10 +7085,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="42">
         <v>200</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7065,10 +7104,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="42">
         <v>300</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7086,10 +7125,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>500</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7102,10 +7141,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7161,35 +7200,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7201,11 +7240,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7215,9 +7254,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7304,63 +7343,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7369,10 +7408,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7387,10 +7426,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="42">
         <v>217</v>
       </c>
-      <c r="F33" s="49"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7406,10 +7445,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="42">
         <v>836</v>
       </c>
-      <c r="F34" s="49"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7425,10 +7464,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="42">
         <v>1040</v>
       </c>
-      <c r="F35" s="49"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7444,10 +7483,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="42">
         <v>200</v>
       </c>
-      <c r="F36" s="49"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7463,10 +7502,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="42">
         <v>300</v>
       </c>
-      <c r="F37" s="49"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7482,10 +7521,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>500</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7498,10 +7537,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7557,35 +7596,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7597,11 +7636,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7611,12 +7650,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="39"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7629,28 +7690,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7673,8 +7712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,60 +7732,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -7755,8 +7794,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7771,13 +7810,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="49">
-        <v>338</v>
-      </c>
-      <c r="F6" s="49"/>
+      <c r="E6" s="42">
+        <v>426</v>
+      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>338000</v>
+        <v>426000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7790,13 +7829,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="49">
-        <v>1227</v>
-      </c>
-      <c r="F7" s="49"/>
+      <c r="E7" s="42">
+        <v>1130</v>
+      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>613500</v>
+        <v>565000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7809,13 +7848,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="49">
-        <v>1284</v>
-      </c>
-      <c r="F8" s="49"/>
+      <c r="E8" s="42">
+        <v>1500</v>
+      </c>
+      <c r="F8" s="42"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>128400</v>
+        <v>150000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7828,13 +7867,13 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="49">
-        <v>176</v>
-      </c>
-      <c r="F9" s="49"/>
+      <c r="E9" s="42">
+        <v>100</v>
+      </c>
+      <c r="F9" s="42"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>8800</v>
+        <v>5000</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -7847,13 +7886,13 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="49">
-        <v>465</v>
-      </c>
-      <c r="F10" s="49"/>
+      <c r="E10" s="42">
+        <v>100</v>
+      </c>
+      <c r="F10" s="42"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>9300</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -7868,10 +7907,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="42">
         <v>200</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -7880,31 +7919,35 @@
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="31">
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86">
         <f>SUM(G6:G11)</f>
-        <v>1100000</v>
+        <v>1150000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -7943,35 +7986,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="42" t="s">
+      <c r="H16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="42"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7983,11 +8026,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="52" t="s">
+      <c r="H19" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7997,9 +8040,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8086,60 +8129,61 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="str">
+        <f>A4</f>
+        <v>Date: 03.06.2021</v>
+      </c>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8148,10 +8192,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8166,13 +8210,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="49">
-        <v>338</v>
-      </c>
-      <c r="F33" s="49"/>
+      <c r="E33" s="42">
+        <v>426</v>
+      </c>
+      <c r="F33" s="42"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>338000</v>
+        <v>426000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8185,13 +8229,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="49">
-        <v>1227</v>
-      </c>
-      <c r="F34" s="49"/>
+      <c r="E34" s="42">
+        <v>1130</v>
+      </c>
+      <c r="F34" s="42"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>613500</v>
+        <v>565000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8204,13 +8248,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="49">
-        <v>1284</v>
-      </c>
-      <c r="F35" s="49"/>
+      <c r="E35" s="42">
+        <v>1500</v>
+      </c>
+      <c r="F35" s="42"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>128400</v>
+        <v>150000</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8223,13 +8267,13 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="49">
-        <v>176</v>
-      </c>
-      <c r="F36" s="49"/>
+      <c r="E36" s="42">
+        <v>100</v>
+      </c>
+      <c r="F36" s="42"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>8800</v>
+        <v>5000</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -8242,13 +8286,13 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="49">
-        <v>465</v>
-      </c>
-      <c r="F37" s="49"/>
+      <c r="E37" s="42">
+        <v>100</v>
+      </c>
+      <c r="F37" s="42"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
-        <v>9300</v>
+        <v>2000</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8261,10 +8305,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="49">
+      <c r="E38" s="42">
         <v>200</v>
       </c>
-      <c r="F38" s="49"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -8277,27 +8321,33 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="36">
+      <c r="E39" s="88"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90">
         <f>SUM(G33:G38)</f>
-        <v>1100000</v>
+        <v>1150000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
       <c r="J39" s="33"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
+      <c r="D40" s="83" t="str">
+        <f>D13</f>
+        <v>Amount In Words :</v>
+      </c>
+      <c r="E40" s="91" t="str">
+        <f>E13</f>
+        <v>Eleven Lac Fifty Thousand Taka Only.</v>
+      </c>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -8336,35 +8386,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="42" t="s">
+      <c r="H43" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="43"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="43"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8376,14 +8426,37 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="44" t="s">
+      <c r="H46" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="35">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8396,27 +8469,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -130,13 +130,13 @@
     <t>Md Jafor Iqbal</t>
   </si>
   <si>
-    <t>Date: 03.06.2021</t>
+    <t>Amount In Words :</t>
   </si>
   <si>
-    <t>Eleven Lac Fifty Thousand Taka Only.</t>
+    <t>Date: 10.06.2021</t>
   </si>
   <si>
-    <t>Amount In Words :</t>
+    <t>Ten Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -528,6 +528,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -543,69 +577,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,26 +601,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -659,18 +668,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -679,14 +682,11 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3425,63 +3425,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,8 +3491,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3507,10 +3507,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="54">
         <v>536</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3526,10 +3526,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="54">
         <v>1809</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3545,10 +3545,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="54">
         <v>1583</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3564,10 +3564,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="54">
         <v>530</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3583,10 +3583,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="54">
         <v>185</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3604,10 +3604,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="54">
         <v>100</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3620,10 +3620,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3679,35 +3679,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3719,11 +3719,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3733,9 +3733,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3822,63 +3822,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3887,10 +3887,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3905,10 +3905,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="54">
         <v>536</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3924,10 +3924,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="54">
         <v>1809</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3943,10 +3943,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="54">
         <v>1583</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3962,10 +3962,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="54">
         <v>530</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3981,10 +3981,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="54">
         <v>185</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -4000,10 +4000,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="54">
         <v>100</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -4016,10 +4016,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4075,35 +4075,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4115,11 +4115,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4129,12 +4129,32 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4149,26 +4169,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4199,63 +4199,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4265,10 +4265,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4283,10 +4283,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="73">
         <v>68</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4302,10 +4302,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="73">
         <v>135</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4321,10 +4321,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="73">
         <v>53</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4340,10 +4340,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="73">
         <v>2</v>
       </c>
-      <c r="F9" s="57"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4359,10 +4359,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="73">
         <v>5</v>
       </c>
-      <c r="F10" s="57"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4378,8 +4378,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4392,10 +4392,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4442,76 +4442,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="60"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4586,60 +4586,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4648,10 +4648,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4666,10 +4666,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="64">
         <v>68</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4685,10 +4685,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="64">
         <v>135</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4704,10 +4704,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="64">
         <v>53</v>
       </c>
-      <c r="F34" s="68"/>
+      <c r="F34" s="64"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4723,10 +4723,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="68">
+      <c r="E35" s="64">
         <v>2</v>
       </c>
-      <c r="F35" s="68"/>
+      <c r="F35" s="64"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4742,10 +4742,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="64">
         <v>5</v>
       </c>
-      <c r="F36" s="68"/>
+      <c r="F36" s="64"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4761,8 +4761,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4775,10 +4775,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="66"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4825,76 +4825,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="60"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="44"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4922,6 +4922,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4938,30 +4962,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4993,63 +4993,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,10 +5059,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5077,10 +5077,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="73">
         <v>44</v>
       </c>
-      <c r="F6" s="57"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5096,10 +5096,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="73">
         <v>118</v>
       </c>
-      <c r="F7" s="57"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5115,10 +5115,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="73">
         <v>510</v>
       </c>
-      <c r="F8" s="57"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5134,8 +5134,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5151,8 +5151,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5168,8 +5168,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5182,10 +5182,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5232,72 +5232,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59" t="s">
+      <c r="H16" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61" t="s">
+      <c r="H19" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5372,60 +5372,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5434,10 +5434,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="72"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5452,10 +5452,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="73">
         <v>44</v>
       </c>
-      <c r="F32" s="57"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5471,10 +5471,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="73">
         <v>118</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5490,10 +5490,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="73">
         <v>510</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5509,8 +5509,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5526,8 +5526,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5543,8 +5543,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5557,10 +5557,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="70" t="s">
+      <c r="D38" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="70"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5607,72 +5607,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="67"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="67"/>
-      <c r="J42" s="67"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60" t="s">
+      <c r="H45" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="62"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="62" t="s">
+      <c r="H46" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5700,16 +5700,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5722,24 +5730,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5764,64 +5764,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5832,8 +5832,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5844,8 +5844,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5856,8 +5856,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5868,8 +5868,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5880,8 +5880,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5892,8 +5892,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5903,8 +5903,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5948,52 +5948,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -6003,9 +6003,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6092,60 +6092,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="64" t="s">
+      <c r="A30" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6156,10 +6156,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="58"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6174,10 +6174,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="73">
         <v>30</v>
       </c>
-      <c r="F33" s="57"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6193,10 +6193,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="73">
         <v>35</v>
       </c>
-      <c r="F34" s="57"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6212,10 +6212,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="73">
         <v>425</v>
       </c>
-      <c r="F35" s="57"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6231,8 +6231,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6248,8 +6248,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6265,10 +6265,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="68">
+      <c r="E38" s="64">
         <v>100</v>
       </c>
-      <c r="F38" s="68"/>
+      <c r="F38" s="64"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6281,10 +6281,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="71" t="s">
+      <c r="D39" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="72"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
         <f>SUM(G33:G38)</f>
@@ -6331,58 +6331,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="67"/>
+      <c r="B43" s="62"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="67"/>
-      <c r="J46" s="67"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="62"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6392,12 +6392,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="63"/>
-      <c r="J47" s="63"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6410,32 +6436,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6461,177 +6461,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="82">
+      <c r="A5" s="86">
         <v>1</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="73">
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="85">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="82">
+      <c r="A7" s="86">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="73">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="85">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="86">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73">
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="85">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
+      <c r="A10" s="86"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="82">
+      <c r="A11" s="86">
         <v>4</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="73">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="85">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="73"/>
+      <c r="A12" s="86"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="73">
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="85">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="73"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6642,10 +6642,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6660,8 +6660,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6677,10 +6677,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="73">
         <v>30</v>
       </c>
-      <c r="F27" s="57"/>
+      <c r="F27" s="73"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6696,8 +6696,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6713,10 +6713,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="57">
+      <c r="E29" s="73">
         <v>5</v>
       </c>
-      <c r="F29" s="57"/>
+      <c r="F29" s="73"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6732,8 +6732,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6749,10 +6749,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="64">
         <v>2</v>
       </c>
-      <c r="F31" s="68"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6765,10 +6765,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="72"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
         <f>SUM(G26:G31)</f>
@@ -6815,58 +6815,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="67"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="62"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="60" t="s">
+      <c r="H39" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6876,12 +6876,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
-      <c r="J40" s="63"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6898,23 +6915,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6946,63 +6946,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7012,8 +7012,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7028,10 +7028,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="54">
         <v>217</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7047,10 +7047,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="54">
         <v>836</v>
       </c>
-      <c r="F7" s="42"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7066,10 +7066,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="54">
         <v>1040</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="54"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7085,10 +7085,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="54">
         <v>200</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7104,10 +7104,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="54">
         <v>300</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7125,10 +7125,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="54">
         <v>500</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7141,10 +7141,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7200,35 +7200,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7240,11 +7240,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7254,9 +7254,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7343,63 +7343,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7408,10 +7408,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7426,10 +7426,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
+      <c r="E33" s="54">
         <v>217</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7445,10 +7445,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
+      <c r="E34" s="54">
         <v>836</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7464,10 +7464,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
+      <c r="E35" s="54">
         <v>1040</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7483,10 +7483,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
+      <c r="E36" s="54">
         <v>200</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7502,10 +7502,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
+      <c r="E37" s="54">
         <v>300</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7521,10 +7521,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
+      <c r="E38" s="54">
         <v>500</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7537,10 +7537,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="52"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7596,35 +7596,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7636,11 +7636,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7650,22 +7650,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -7678,18 +7680,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7713,7 +7713,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7732,60 +7732,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
     </row>
     <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -7794,8 +7794,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7810,13 +7810,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="42">
-        <v>426</v>
-      </c>
-      <c r="F6" s="42"/>
+      <c r="E6" s="54">
+        <v>382</v>
+      </c>
+      <c r="F6" s="54"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>426000</v>
+        <v>382000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7829,13 +7829,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="42">
-        <v>1130</v>
-      </c>
-      <c r="F7" s="42"/>
+      <c r="E7" s="54">
+        <v>1012</v>
+      </c>
+      <c r="F7" s="54"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>565000</v>
+        <v>506000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7848,13 +7848,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="42">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="42"/>
+      <c r="E8" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="54"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7867,13 +7867,13 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="42">
-        <v>100</v>
-      </c>
-      <c r="F9" s="42"/>
+      <c r="E9" s="54">
+        <v>240</v>
+      </c>
+      <c r="F9" s="54"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -7886,13 +7886,11 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="42">
-        <v>100</v>
-      </c>
-      <c r="F10" s="42"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -7907,13 +7905,11 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="42">
-        <v>200</v>
-      </c>
-      <c r="F11" s="42"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
@@ -7923,14 +7919,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86">
+      <c r="E12" s="90"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40">
         <f>SUM(G6:G11)</f>
-        <v>1150000</v>
+        <v>1000000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7940,11 +7936,11 @@
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="91" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>33</v>
       </c>
       <c r="F13" s="91"/>
       <c r="G13" s="91"/>
@@ -7986,35 +7982,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="43" t="s">
+      <c r="H16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="43"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="43"/>
+      <c r="D18" s="47"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -8026,11 +8022,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="44" t="s">
+      <c r="H19" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -8040,9 +8036,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8129,61 +8125,61 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="str">
+      <c r="A31" s="52" t="str">
         <f>A4</f>
-        <v>Date: 03.06.2021</v>
-      </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
+        <v>Date: 10.06.2021</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8192,10 +8188,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="41" t="s">
+      <c r="E32" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="41"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8210,13 +8206,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="42">
-        <v>426</v>
-      </c>
-      <c r="F33" s="42"/>
+      <c r="E33" s="54">
+        <v>382</v>
+      </c>
+      <c r="F33" s="54"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>426000</v>
+        <v>382000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8229,13 +8225,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="42">
-        <v>1130</v>
-      </c>
-      <c r="F34" s="42"/>
+      <c r="E34" s="54">
+        <v>1012</v>
+      </c>
+      <c r="F34" s="54"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>565000</v>
+        <v>506000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8248,13 +8244,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="42">
-        <v>1500</v>
-      </c>
-      <c r="F35" s="42"/>
+      <c r="E35" s="54">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="54"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8267,13 +8263,13 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="42">
-        <v>100</v>
-      </c>
-      <c r="F36" s="42"/>
+      <c r="E36" s="54">
+        <v>240</v>
+      </c>
+      <c r="F36" s="54"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>12000</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -8286,13 +8282,11 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="42">
-        <v>100</v>
-      </c>
-      <c r="F37" s="42"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8305,13 +8299,11 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="42">
-        <v>200</v>
-      </c>
-      <c r="F38" s="42"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -8321,14 +8313,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90">
+      <c r="E39" s="89"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42">
         <f>SUM(G33:G38)</f>
-        <v>1150000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8338,13 +8330,13 @@
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="83" t="str">
+      <c r="D40" s="38" t="str">
         <f>D13</f>
         <v>Amount In Words :</v>
       </c>
       <c r="E40" s="91" t="str">
         <f>E13</f>
-        <v>Eleven Lac Fifty Thousand Taka Only.</v>
+        <v>Ten Lac Taka Only.</v>
       </c>
       <c r="F40" s="91"/>
       <c r="G40" s="91"/>
@@ -8386,35 +8378,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="43" t="s">
+      <c r="H43" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8426,14 +8418,33 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E40:G40"/>
     <mergeCell ref="D44:D45"/>
@@ -8450,25 +8461,6 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="H17:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="36">
   <si>
     <t>Tulip-2</t>
   </si>
@@ -133,10 +133,13 @@
     <t>Amount In Words :</t>
   </si>
   <si>
-    <t>Date: 10.06.2021</t>
+    <t>Twelve Lac Taka Only.</t>
   </si>
   <si>
-    <t>Ten Lac Taka Only.</t>
+    <t>Date: 17.06.2021</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -543,25 +546,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -577,20 +561,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,50 +634,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -668,18 +677,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -687,6 +684,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3425,63 +3428,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3491,8 +3494,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3507,10 +3510,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="47">
         <v>536</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3526,10 +3529,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="47">
         <v>1809</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3545,10 +3548,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="47">
         <v>1583</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3564,10 +3567,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="47">
         <v>530</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3583,10 +3586,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="47">
         <v>185</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3604,10 +3607,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="47">
         <v>100</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3620,10 +3623,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3679,35 +3682,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3719,11 +3722,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3733,9 +3736,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3822,63 +3825,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3887,10 +3890,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3905,10 +3908,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="47">
         <v>536</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3924,10 +3927,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="47">
         <v>1809</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3943,10 +3946,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="47">
         <v>1583</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3962,10 +3965,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="47">
         <v>530</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3981,10 +3984,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="47">
         <v>185</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -4000,10 +4003,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="47">
         <v>100</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -4016,10 +4019,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4075,35 +4078,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4115,11 +4118,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="49" t="s">
+      <c r="H46" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4129,32 +4132,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4169,6 +4152,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4199,63 +4202,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4265,10 +4268,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4283,10 +4286,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="62">
         <v>68</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4302,10 +4305,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="62">
         <v>135</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4321,10 +4324,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="62">
         <v>53</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4340,10 +4343,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="62">
         <v>2</v>
       </c>
-      <c r="F9" s="73"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4359,10 +4362,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="62">
         <v>5</v>
       </c>
-      <c r="F10" s="73"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4378,8 +4381,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4392,10 +4395,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4442,76 +4445,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="63"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="60" t="s">
+      <c r="A20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="60"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4586,60 +4589,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4648,10 +4651,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4666,10 +4669,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="64">
+      <c r="E32" s="73">
         <v>68</v>
       </c>
-      <c r="F32" s="64"/>
+      <c r="F32" s="73"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4685,10 +4688,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="64">
+      <c r="E33" s="73">
         <v>135</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="73"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4704,10 +4707,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="64">
+      <c r="E34" s="73">
         <v>53</v>
       </c>
-      <c r="F34" s="64"/>
+      <c r="F34" s="73"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4723,10 +4726,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="73">
         <v>2</v>
       </c>
-      <c r="F35" s="64"/>
+      <c r="F35" s="73"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4742,10 +4745,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="64">
+      <c r="E36" s="73">
         <v>5</v>
       </c>
-      <c r="F36" s="64"/>
+      <c r="F36" s="73"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4761,8 +4764,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4775,10 +4778,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="61" t="s">
+      <c r="D38" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="61"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4825,76 +4828,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="62"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="63" t="s">
+      <c r="A45" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="63"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="57"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4922,30 +4925,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4962,6 +4941,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4993,63 +4996,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,10 +5062,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5077,10 +5080,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="62">
         <v>44</v>
       </c>
-      <c r="F6" s="73"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5096,10 +5099,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="62">
         <v>118</v>
       </c>
-      <c r="F7" s="73"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5115,10 +5118,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="62">
         <v>510</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5134,8 +5137,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5151,8 +5154,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5168,8 +5171,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5182,10 +5185,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="72"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5232,72 +5235,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5372,60 +5375,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5434,10 +5437,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="72" t="s">
+      <c r="E31" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="72"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5452,10 +5455,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="62">
         <v>44</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="62"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5471,10 +5474,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="62">
         <v>118</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5490,10 +5493,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="62">
         <v>510</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5509,8 +5512,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5526,8 +5529,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5543,8 +5546,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5557,10 +5560,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5607,72 +5610,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="62"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="62" t="s">
+      <c r="H42" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="63"/>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="63" t="s">
+      <c r="H45" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5700,6 +5703,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5712,34 +5743,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5764,64 +5767,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5832,8 +5835,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5844,8 +5847,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5856,8 +5859,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5868,8 +5871,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5880,8 +5883,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5892,8 +5895,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5903,8 +5906,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5948,52 +5951,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -6003,9 +6006,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6092,60 +6095,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="68"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="71" t="s">
+      <c r="A31" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6156,10 +6159,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="65" t="s">
+      <c r="E32" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="65"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6174,10 +6177,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="62">
         <v>30</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="62"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6193,10 +6196,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="62">
         <v>35</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="62"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6212,10 +6215,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="62">
         <v>425</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6231,8 +6234,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6248,8 +6251,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6265,10 +6268,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="64">
+      <c r="E38" s="73">
         <v>100</v>
       </c>
-      <c r="F38" s="64"/>
+      <c r="F38" s="73"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6331,58 +6334,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="62" t="s">
+      <c r="H43" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="63"/>
-      <c r="J44" s="63"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="63" t="s">
+      <c r="H46" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6392,20 +6395,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="59"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6418,24 +6431,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6461,177 +6464,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="86">
+      <c r="A5" s="87">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="85">
+      <c r="C5" s="80"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="78">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="85"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="87">
         <v>2</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="85">
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="78">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="85"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="78"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="86">
+      <c r="A9" s="87">
         <v>3</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="85">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="78">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="85"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="86">
+      <c r="A11" s="87">
         <v>4</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="85">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="78">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="85"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="78"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="85">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="78">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="85"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="78"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="69"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6642,10 +6645,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6660,8 +6663,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6677,10 +6680,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="62">
         <v>30</v>
       </c>
-      <c r="F27" s="73"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6696,8 +6699,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6713,10 +6716,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="73">
+      <c r="E29" s="62">
         <v>5</v>
       </c>
-      <c r="F29" s="73"/>
+      <c r="F29" s="62"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6732,8 +6735,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6749,10 +6752,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="73">
         <v>2</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6815,58 +6818,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="63"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="63"/>
-      <c r="I38" s="63"/>
-      <c r="J38" s="63"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="63" t="s">
+      <c r="H39" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6876,29 +6879,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="58"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6915,6 +6901,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6946,63 +6949,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7012,8 +7015,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7028,10 +7031,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="54">
+      <c r="E6" s="47">
         <v>217</v>
       </c>
-      <c r="F6" s="54"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7047,10 +7050,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="47">
         <v>836</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7066,10 +7069,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="54">
+      <c r="E8" s="47">
         <v>1040</v>
       </c>
-      <c r="F8" s="54"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7085,10 +7088,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="47">
         <v>200</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7104,10 +7107,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="54">
+      <c r="E10" s="47">
         <v>300</v>
       </c>
-      <c r="F10" s="54"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7125,10 +7128,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="47">
         <v>500</v>
       </c>
-      <c r="F11" s="54"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7141,10 +7144,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7200,35 +7203,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7240,11 +7243,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7254,9 +7257,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7343,63 +7346,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7408,10 +7411,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7426,10 +7429,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="47">
         <v>217</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7445,10 +7448,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="47">
         <v>836</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7464,10 +7467,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="47">
         <v>1040</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7483,10 +7486,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="47">
         <v>200</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7502,10 +7505,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="54">
+      <c r="E37" s="47">
         <v>300</v>
       </c>
-      <c r="F37" s="54"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7521,10 +7524,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="54">
+      <c r="E38" s="47">
         <v>500</v>
       </c>
-      <c r="F38" s="54"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7537,10 +7540,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="57"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7596,35 +7599,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7636,11 +7639,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="49" t="s">
+      <c r="H46" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7650,12 +7653,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7668,28 +7693,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7710,10 +7713,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7731,71 +7734,71 @@
     <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+    </row>
+    <row r="5" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7803,152 +7806,157 @@
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
     </row>
-    <row r="6" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="54">
-        <v>382</v>
-      </c>
-      <c r="F6" s="54"/>
+      <c r="E6" s="47">
+        <v>466</v>
+      </c>
+      <c r="F6" s="47"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>382000</v>
+        <v>466000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
     </row>
-    <row r="7" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="54">
-        <v>1012</v>
-      </c>
-      <c r="F7" s="54"/>
+      <c r="E7" s="47">
+        <v>1200</v>
+      </c>
+      <c r="F7" s="47"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>506000</v>
+        <v>600000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="54">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="54"/>
+      <c r="E8" s="47">
+        <v>1280</v>
+      </c>
+      <c r="F8" s="47"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>100000</v>
+        <v>128000</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
     </row>
-    <row r="9" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="54">
-        <v>240</v>
-      </c>
-      <c r="F9" s="54"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
     </row>
-    <row r="10" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="47">
+        <v>100</v>
+      </c>
+      <c r="F10" s="47"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
       <c r="J10" s="37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="47">
+        <v>400</v>
+      </c>
+      <c r="F11" s="47"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
       <c r="J11" s="33"/>
     </row>
-    <row r="12" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="39"/>
       <c r="G12" s="40">
         <f>SUM(G6:G11)</f>
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
     </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
+      <c r="E13" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -7960,7 +7968,7 @@
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -7972,7 +7980,7 @@
       <c r="I15" s="33"/>
       <c r="J15" s="33"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="32"/>
@@ -7982,35 +7990,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="47"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -8022,11 +8030,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="57" t="s">
+      <c r="H19" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -8036,9 +8044,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8125,61 +8133,61 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="str">
+      <c r="A31" s="45" t="str">
         <f>A4</f>
-        <v>Date: 10.06.2021</v>
-      </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+        <v>Date: 17.06.2021</v>
+      </c>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="45"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8188,10 +8196,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E32" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="53"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8206,10 +8214,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="47">
         <v>382</v>
       </c>
-      <c r="F33" s="54"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>382000</v>
@@ -8225,10 +8233,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="54">
+      <c r="E34" s="47">
         <v>1012</v>
       </c>
-      <c r="F34" s="54"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>506000</v>
@@ -8244,10 +8252,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="54">
+      <c r="E35" s="47">
         <v>1000</v>
       </c>
-      <c r="F35" s="54"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>100000</v>
@@ -8263,10 +8271,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="54">
+      <c r="E36" s="47">
         <v>240</v>
       </c>
-      <c r="F36" s="54"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>12000</v>
@@ -8282,8 +8290,8 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="47"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -8299,8 +8307,8 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -8313,10 +8321,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="88" t="s">
+      <c r="D39" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="89"/>
+      <c r="E39" s="91"/>
       <c r="F39" s="41"/>
       <c r="G39" s="42">
         <f>SUM(G33:G38)</f>
@@ -8334,12 +8342,12 @@
         <f>D13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="E40" s="91" t="str">
+      <c r="E40" s="89" t="str">
         <f>E13</f>
-        <v>Ten Lac Taka Only.</v>
-      </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
+        <v>Twelve Lac Taka Only.</v>
+      </c>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -8378,35 +8386,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="47" t="s">
+      <c r="H43" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="47"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8418,14 +8426,33 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="49" t="s">
+      <c r="H46" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="49"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
@@ -8442,25 +8469,6 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -133,13 +133,13 @@
     <t>Amount In Words :</t>
   </si>
   <si>
-    <t>Twelve Lac Taka Only.</t>
+    <t>-</t>
   </si>
   <si>
-    <t>Date: 17.06.2021</t>
+    <t>Date: 24.06.2021</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Eight Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,6 +546,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -561,69 +583,20 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,26 +607,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -677,18 +674,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3428,63 +3431,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3494,8 +3497,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3510,10 +3513,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="55">
         <v>536</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3529,10 +3532,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="55">
         <v>1809</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3548,10 +3551,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="55">
         <v>1583</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3567,10 +3570,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="55">
         <v>530</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3586,10 +3589,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="55">
         <v>185</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3607,10 +3610,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="55">
         <v>100</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3623,10 +3626,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3722,11 +3725,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3736,9 +3739,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3825,63 +3828,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3890,10 +3893,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3908,10 +3911,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="55">
         <v>536</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3927,10 +3930,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="55">
         <v>1809</v>
       </c>
-      <c r="F34" s="47"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3946,10 +3949,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="55">
         <v>1583</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3965,10 +3968,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="55">
         <v>530</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3984,10 +3987,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="55">
         <v>185</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -4003,10 +4006,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="55">
         <v>100</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -4088,25 +4091,25 @@
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4118,11 +4121,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4132,12 +4135,32 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4152,26 +4175,6 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4202,63 +4205,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4268,10 +4271,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4286,10 +4289,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="74">
         <v>68</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4305,10 +4308,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="74">
         <v>135</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4324,10 +4327,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="74">
         <v>53</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4343,10 +4346,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="74">
         <v>2</v>
       </c>
-      <c r="F9" s="62"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4362,10 +4365,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="74">
         <v>5</v>
       </c>
-      <c r="F10" s="62"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4381,8 +4384,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4395,10 +4398,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4445,76 +4448,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="61"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4589,60 +4592,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4651,10 +4654,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="63" t="s">
+      <c r="E31" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="63"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4669,10 +4672,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="73">
+      <c r="E32" s="65">
         <v>68</v>
       </c>
-      <c r="F32" s="73"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4688,10 +4691,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="73">
+      <c r="E33" s="65">
         <v>135</v>
       </c>
-      <c r="F33" s="73"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4707,10 +4710,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="73">
+      <c r="E34" s="65">
         <v>53</v>
       </c>
-      <c r="F34" s="73"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4726,10 +4729,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="73">
+      <c r="E35" s="65">
         <v>2</v>
       </c>
-      <c r="F35" s="73"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4745,10 +4748,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="73">
+      <c r="E36" s="65">
         <v>5</v>
       </c>
-      <c r="F36" s="73"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4764,8 +4767,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4778,10 +4781,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="71" t="s">
+      <c r="D38" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="71"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4828,76 +4831,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="65"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="65" t="s">
+      <c r="H45" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="49" t="s">
+      <c r="A46" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="49"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="67" t="s">
+      <c r="H46" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4925,6 +4928,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4941,30 +4968,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4996,63 +4999,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5062,10 +5065,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5080,10 +5083,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="74">
         <v>44</v>
       </c>
-      <c r="F6" s="62"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5099,10 +5102,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="74">
         <v>118</v>
       </c>
-      <c r="F7" s="62"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5118,10 +5121,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="74">
         <v>510</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5137,8 +5140,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5154,8 +5157,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5171,8 +5174,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5185,10 +5188,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="58" t="s">
+      <c r="D12" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="58"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5235,72 +5238,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5375,60 +5378,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="61" t="s">
+      <c r="A30" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5437,10 +5440,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="58" t="s">
+      <c r="E31" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="58"/>
+      <c r="F31" s="73"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5455,10 +5458,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="62">
+      <c r="E32" s="74">
         <v>44</v>
       </c>
-      <c r="F32" s="62"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5474,10 +5477,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="74">
         <v>118</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5493,10 +5496,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="74">
         <v>510</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5512,8 +5515,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="62"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5529,8 +5532,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5546,8 +5549,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5610,72 +5613,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="72"/>
+      <c r="B42" s="63"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="64"/>
+      <c r="B43" s="64"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="64"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="65" t="s">
+      <c r="H45" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="49"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="67" t="s">
+      <c r="H46" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5703,16 +5706,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H20:J20"/>
@@ -5725,24 +5736,16 @@
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5767,64 +5770,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5835,8 +5838,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5847,8 +5850,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5859,8 +5862,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5871,8 +5874,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5883,8 +5886,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5895,8 +5898,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5906,8 +5909,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5951,52 +5954,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -6006,9 +6009,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6095,60 +6098,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="A29" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="69"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6159,10 +6162,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="63" t="s">
+      <c r="E32" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="63"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6177,10 +6180,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="74">
         <v>30</v>
       </c>
-      <c r="F33" s="62"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6196,10 +6199,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="62">
+      <c r="E34" s="74">
         <v>35</v>
       </c>
-      <c r="F34" s="62"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6215,10 +6218,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="62">
+      <c r="E35" s="74">
         <v>425</v>
       </c>
-      <c r="F35" s="62"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6234,8 +6237,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="62"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6251,8 +6254,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6268,10 +6271,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="73">
+      <c r="E38" s="65">
         <v>100</v>
       </c>
-      <c r="F38" s="73"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6284,10 +6287,10 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="77"/>
+      <c r="E39" s="78"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16">
         <f>SUM(G33:G38)</f>
@@ -6334,58 +6337,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="72"/>
+      <c r="B43" s="63"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="72" t="s">
+      <c r="H43" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
+      <c r="A44" s="64"/>
+      <c r="B44" s="64"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
+      <c r="A45" s="64"/>
+      <c r="B45" s="64"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="65"/>
-      <c r="J45" s="65"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
+      <c r="A46" s="64"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="65" t="s">
+      <c r="H46" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6395,12 +6398,38 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -6413,32 +6442,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6464,177 +6467,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="87">
         <v>1</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="78">
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="86">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="87"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="87">
         <v>2</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="78">
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="86">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="87"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="87">
         <v>3</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="78">
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="86">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="87"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="87">
         <v>4</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="78">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="86">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="87"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="78"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="78">
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="86">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="78"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6645,10 +6648,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="63" t="s">
+      <c r="E25" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="63"/>
+      <c r="F25" s="66"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6663,8 +6666,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6680,10 +6683,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="62">
+      <c r="E27" s="74">
         <v>30</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="74"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6699,8 +6702,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6716,10 +6719,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="62">
+      <c r="E29" s="74">
         <v>5</v>
       </c>
-      <c r="F29" s="62"/>
+      <c r="F29" s="74"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6735,8 +6738,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6752,10 +6755,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="73">
+      <c r="E31" s="65">
         <v>2</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6768,10 +6771,10 @@
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="77"/>
+      <c r="E32" s="78"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
         <f>SUM(G26:G31)</f>
@@ -6818,58 +6821,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="72"/>
+      <c r="B36" s="63"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="72" t="s">
+      <c r="H36" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="64"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="65" t="s">
+      <c r="H39" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6879,12 +6882,29 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6901,23 +6921,6 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6949,63 +6952,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7015,8 +7018,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7031,10 +7034,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="55">
         <v>217</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7050,10 +7053,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="55">
         <v>836</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7069,10 +7072,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="55">
         <v>1040</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7088,10 +7091,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="55">
         <v>200</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7107,10 +7110,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="55">
         <v>300</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7128,10 +7131,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="55">
         <v>500</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7144,10 +7147,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="47"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7243,11 +7246,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7257,9 +7260,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7346,63 +7349,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7411,10 +7414,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7429,10 +7432,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="47">
+      <c r="E33" s="55">
         <v>217</v>
       </c>
-      <c r="F33" s="47"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7448,10 +7451,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="55">
         <v>836</v>
       </c>
-      <c r="F34" s="47"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7467,10 +7470,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="55">
         <v>1040</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7486,10 +7489,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="55">
         <v>200</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="55"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7505,10 +7508,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="47">
+      <c r="E37" s="55">
         <v>300</v>
       </c>
-      <c r="F37" s="47"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7524,10 +7527,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="47">
+      <c r="E38" s="55">
         <v>500</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7609,25 +7612,25 @@
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7639,11 +7642,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7653,22 +7656,24 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="H16:J16"/>
     <mergeCell ref="D17:D18"/>
@@ -7681,18 +7686,16 @@
     <mergeCell ref="A31:J31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7715,8 +7718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7735,60 +7738,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
     </row>
     <row r="5" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -7797,8 +7800,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7813,13 +7816,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="47">
-        <v>466</v>
-      </c>
-      <c r="F6" s="47"/>
+      <c r="E6" s="55">
+        <v>366</v>
+      </c>
+      <c r="F6" s="55"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>466000</v>
+        <v>366000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7832,13 +7835,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="47">
-        <v>1200</v>
-      </c>
-      <c r="F7" s="47"/>
+      <c r="E7" s="55">
+        <v>632</v>
+      </c>
+      <c r="F7" s="55"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>600000</v>
+        <v>316000</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7851,13 +7854,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="47">
-        <v>1280</v>
-      </c>
-      <c r="F8" s="47"/>
+      <c r="E8" s="55">
+        <v>1051</v>
+      </c>
+      <c r="F8" s="55"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>128000</v>
+        <v>105100</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7870,11 +7873,13 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
+      <c r="E9" s="55">
+        <v>178</v>
+      </c>
+      <c r="F9" s="55"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -7887,10 +7892,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="55">
         <v>100</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -7901,7 +7906,7 @@
         <v>30</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7911,13 +7916,13 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="47">
-        <v>400</v>
-      </c>
-      <c r="F11" s="47"/>
+      <c r="E11" s="55">
+        <v>200</v>
+      </c>
+      <c r="F11" s="55"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
@@ -7927,14 +7932,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="88" t="s">
+      <c r="D12" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="39"/>
       <c r="G12" s="40">
         <f>SUM(G6:G11)</f>
-        <v>1200000</v>
+        <v>800000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7947,11 +7952,11 @@
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
+      <c r="E13" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -7972,27 +7977,27 @@
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="D15" s="43" t="s">
+        <v>8</v>
+      </c>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
+      <c r="H15" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="32" t="s">
-        <v>8</v>
-      </c>
+      <c r="D16" s="48"/>
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="48" t="s">
-        <v>7</v>
-      </c>
+      <c r="H16" s="48"/>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
     </row>
@@ -8030,11 +8035,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="49" t="s">
+      <c r="H19" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -8044,9 +8049,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8133,61 +8138,61 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="str">
+      <c r="A31" s="53" t="str">
         <f>A4</f>
-        <v>Date: 17.06.2021</v>
-      </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="45"/>
-      <c r="J31" s="45"/>
+        <v>Date: 24.06.2021</v>
+      </c>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="53"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8196,10 +8201,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="46" t="s">
+      <c r="E32" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8214,13 +8219,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="47">
-        <v>382</v>
-      </c>
-      <c r="F33" s="47"/>
+      <c r="E33" s="55">
+        <v>366</v>
+      </c>
+      <c r="F33" s="55"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>382000</v>
+        <v>366000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8233,13 +8238,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="47">
-        <v>1012</v>
-      </c>
-      <c r="F34" s="47"/>
+      <c r="E34" s="55">
+        <v>632</v>
+      </c>
+      <c r="F34" s="55"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>506000</v>
+        <v>316000</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8252,13 +8257,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="47">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="47"/>
+      <c r="E35" s="55">
+        <v>1051</v>
+      </c>
+      <c r="F35" s="55"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>105100</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8271,13 +8276,13 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="47">
-        <v>240</v>
-      </c>
-      <c r="F36" s="47"/>
+      <c r="E36" s="55">
+        <v>178</v>
+      </c>
+      <c r="F36" s="55"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>8900</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -8290,11 +8295,13 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+      <c r="E37" s="55">
+        <v>100</v>
+      </c>
+      <c r="F37" s="55"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8307,11 +8314,13 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="E38" s="55">
+        <v>200</v>
+      </c>
+      <c r="F38" s="55"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -8321,14 +8330,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="91"/>
+      <c r="E39" s="90"/>
       <c r="F39" s="41"/>
       <c r="G39" s="42">
         <f>SUM(G33:G38)</f>
-        <v>1000000</v>
+        <v>800000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8342,12 +8351,12 @@
         <f>D13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="E40" s="89" t="str">
+      <c r="E40" s="91" t="str">
         <f>E13</f>
-        <v>Twelve Lac Taka Only.</v>
-      </c>
-      <c r="F40" s="89"/>
-      <c r="G40" s="89"/>
+        <v>Eight Lac Taka Only.</v>
+      </c>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -8368,27 +8377,27 @@
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="D42" s="43" t="s">
+        <v>8</v>
+      </c>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
+      <c r="H42" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="32" t="s">
-        <v>8</v>
-      </c>
+      <c r="D43" s="48"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="48" t="s">
-        <v>7</v>
-      </c>
+      <c r="H43" s="48"/>
       <c r="I43" s="48"/>
       <c r="J43" s="48"/>
     </row>
@@ -8396,25 +8405,25 @@
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="54"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="54"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8426,35 +8435,18 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="55" t="s">
+      <c r="H46" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J45"/>
+    <mergeCell ref="D43:D45"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -8467,8 +8459,25 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J18"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Symphony/2021/Others/New folder/Cash A.xlsx
+++ b/Symphony/2021/Others/New folder/Cash A.xlsx
@@ -136,10 +136,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>Date: 24.06.2021</t>
+    <t>Date: 01.07.2021</t>
   </si>
   <si>
-    <t>Eight Lac Taka Only.</t>
+    <t>Fourteen Lac Taka Only.</t>
   </si>
 </sst>
 </file>
@@ -549,25 +549,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,20 +564,69 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,50 +637,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -674,24 +680,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3431,63 +3431,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,8 +3497,8 @@
       <c r="D5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3513,10 +3513,10 @@
       <c r="D6" s="23">
         <v>1000</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="48">
         <v>536</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="23">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>536000</v>
@@ -3532,10 +3532,10 @@
       <c r="D7" s="23">
         <v>500</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="48">
         <v>1809</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>904500</v>
@@ -3551,10 +3551,10 @@
       <c r="D8" s="23">
         <v>100</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="48">
         <v>1583</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>158300</v>
@@ -3570,10 +3570,10 @@
       <c r="D9" s="23">
         <v>50</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="48">
         <v>530</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>26500</v>
@@ -3589,10 +3589,10 @@
       <c r="D10" s="23">
         <v>20</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="48">
         <v>185</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>3700</v>
@@ -3610,10 +3610,10 @@
       <c r="D11" s="23">
         <v>10</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="48">
         <v>100</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -3626,10 +3626,10 @@
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="23"/>
       <c r="G12" s="18">
         <f>SUM(G6:G11)</f>
@@ -3685,35 +3685,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="48"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -3725,11 +3725,11 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
@@ -3739,9 +3739,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
@@ -3828,63 +3828,63 @@
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
@@ -3893,10 +3893,10 @@
       <c r="D32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="22" t="s">
         <v>5</v>
       </c>
@@ -3911,10 +3911,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="48">
         <v>536</v>
       </c>
-      <c r="F33" s="55"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>536000</v>
@@ -3930,10 +3930,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="48">
         <v>1809</v>
       </c>
-      <c r="F34" s="55"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>904500</v>
@@ -3949,10 +3949,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="48">
         <v>1583</v>
       </c>
-      <c r="F35" s="55"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>158300</v>
@@ -3968,10 +3968,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="48">
         <v>530</v>
       </c>
-      <c r="F36" s="55"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>26500</v>
@@ -3987,10 +3987,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="48">
         <v>185</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>3700</v>
@@ -4006,10 +4006,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="48">
         <v>100</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>1000</v>
@@ -4022,10 +4022,10 @@
       <c r="A39" s="21"/>
       <c r="B39" s="21"/>
       <c r="C39" s="21"/>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="57"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="27"/>
       <c r="G39" s="19">
         <f>SUM(G33:G38)</f>
@@ -4081,35 +4081,35 @@
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="21"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="21"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -4121,11 +4121,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -4135,32 +4135,12 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="H47:J47"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H43:J43"/>
@@ -4175,6 +4155,26 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="75" orientation="portrait" r:id="rId1"/>
@@ -4205,63 +4205,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4271,10 +4271,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4289,10 +4289,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="63">
         <v>68</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>68000</v>
@@ -4308,10 +4308,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="63">
         <v>135</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>67500</v>
@@ -4327,10 +4327,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="63">
         <v>53</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5300</v>
@@ -4346,10 +4346,10 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="63">
         <v>2</v>
       </c>
-      <c r="F9" s="74"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4365,10 +4365,10 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="74">
+      <c r="E10" s="63">
         <v>5</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -4384,8 +4384,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4398,10 +4398,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -4448,76 +4448,76 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="61"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -4592,60 +4592,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -4654,10 +4654,10 @@
       <c r="D31" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="66"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="9" t="s">
         <v>5</v>
       </c>
@@ -4672,10 +4672,10 @@
       <c r="D32" s="2">
         <v>1000</v>
       </c>
-      <c r="E32" s="65">
+      <c r="E32" s="74">
         <v>68</v>
       </c>
-      <c r="F32" s="65"/>
+      <c r="F32" s="74"/>
       <c r="G32" s="2">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>68000</v>
@@ -4691,10 +4691,10 @@
       <c r="D33" s="2">
         <v>500</v>
       </c>
-      <c r="E33" s="65">
+      <c r="E33" s="74">
         <v>135</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="74"/>
       <c r="G33" s="2">
         <f t="shared" si="1"/>
         <v>67500</v>
@@ -4710,10 +4710,10 @@
       <c r="D34" s="2">
         <v>100</v>
       </c>
-      <c r="E34" s="65">
+      <c r="E34" s="74">
         <v>53</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="74"/>
       <c r="G34" s="2">
         <f t="shared" si="1"/>
         <v>5300</v>
@@ -4729,10 +4729,10 @@
       <c r="D35" s="2">
         <v>50</v>
       </c>
-      <c r="E35" s="65">
+      <c r="E35" s="74">
         <v>2</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="74"/>
       <c r="G35" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4748,10 +4748,10 @@
       <c r="D36" s="2">
         <v>20</v>
       </c>
-      <c r="E36" s="65">
+      <c r="E36" s="74">
         <v>5</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="74"/>
       <c r="G36" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4767,8 +4767,8 @@
       <c r="D37" s="2">
         <v>10</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4781,10 +4781,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="62" t="s">
+      <c r="D38" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9">
         <f>SUM(G32:G37)</f>
@@ -4831,76 +4831,76 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="64"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="58"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -4928,30 +4928,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A46:B46"/>
@@ -4968,6 +4944,30 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4999,63 +4999,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -5065,10 +5065,10 @@
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="73"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="8" t="s">
         <v>5</v>
       </c>
@@ -5083,10 +5083,10 @@
       <c r="D6" s="3">
         <v>1000</v>
       </c>
-      <c r="E6" s="74">
+      <c r="E6" s="63">
         <v>44</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="3">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>44000</v>
@@ -5102,10 +5102,10 @@
       <c r="D7" s="3">
         <v>500</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="63">
         <v>118</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>59000</v>
@@ -5121,10 +5121,10 @@
       <c r="D8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="63">
         <v>510</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>51000</v>
@@ -5140,8 +5140,8 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5157,8 +5157,8 @@
       <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5174,8 +5174,8 @@
       <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5188,10 +5188,10 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8">
         <f>SUM(G6:G11)</f>
@@ -5238,72 +5238,72 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="67" t="s">
+      <c r="H16" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="68" t="s">
+      <c r="H19" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="75"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="59" t="s">
+      <c r="H20" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -5378,60 +5378,60 @@
       <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
     </row>
     <row r="28" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
     </row>
     <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
@@ -5440,10 +5440,10 @@
       <c r="D31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="73"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="12" t="s">
         <v>5</v>
       </c>
@@ -5458,10 +5458,10 @@
       <c r="D32" s="11">
         <v>1000</v>
       </c>
-      <c r="E32" s="74">
+      <c r="E32" s="63">
         <v>44</v>
       </c>
-      <c r="F32" s="74"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="11">
         <f t="shared" ref="G32:G37" si="1">SUM(D32*E32)</f>
         <v>44000</v>
@@ -5477,10 +5477,10 @@
       <c r="D33" s="11">
         <v>500</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="63">
         <v>118</v>
       </c>
-      <c r="F33" s="74"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="11">
         <f t="shared" si="1"/>
         <v>59000</v>
@@ -5496,10 +5496,10 @@
       <c r="D34" s="11">
         <v>100</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="63">
         <v>510</v>
       </c>
-      <c r="F34" s="74"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="11">
         <f t="shared" si="1"/>
         <v>51000</v>
@@ -5515,8 +5515,8 @@
       <c r="D35" s="11">
         <v>50</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5532,8 +5532,8 @@
       <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5549,8 +5549,8 @@
       <c r="D37" s="11">
         <v>10</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5563,10 +5563,10 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="75"/>
+      <c r="E38" s="76"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12">
         <f>SUM(G32:G37)</f>
@@ -5613,72 +5613,72 @@
       <c r="J41" s="6"/>
     </row>
     <row r="42" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="63"/>
+      <c r="B42" s="73"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="63" t="s">
+      <c r="H42" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="63"/>
-      <c r="J42" s="63"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="64"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="66"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I45" s="63"/>
-      <c r="J45" s="63"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="59" t="s">
+      <c r="H46" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="69"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -5706,6 +5706,34 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -5718,34 +5746,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="H43:J44"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.5" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5770,64 +5770,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
       <c r="G5" s="14"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -5838,8 +5838,8 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -5850,8 +5850,8 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="13"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="13"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5862,8 +5862,8 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
       <c r="G8" s="13"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -5874,8 +5874,8 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="13"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -5886,8 +5886,8 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="13"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
       <c r="G10" s="13"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -5898,8 +5898,8 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="13"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="13"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -5909,8 +5909,8 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="6"/>
@@ -5954,52 +5954,52 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="67"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
@@ -6009,9 +6009,9 @@
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
@@ -6098,60 +6098,60 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
     </row>
     <row r="32" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -6162,10 +6162,10 @@
       <c r="D32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="66"/>
+      <c r="F32" s="64"/>
       <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
@@ -6180,10 +6180,10 @@
       <c r="D33" s="15">
         <v>1000</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="63">
         <v>30</v>
       </c>
-      <c r="F33" s="74"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="15">
         <f t="shared" ref="G33:G38" si="0">SUM(D33*E33)</f>
         <v>30000</v>
@@ -6199,10 +6199,10 @@
       <c r="D34" s="15">
         <v>500</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="63">
         <v>35</v>
       </c>
-      <c r="F34" s="74"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="15">
         <f t="shared" si="0"/>
         <v>17500</v>
@@ -6218,10 +6218,10 @@
       <c r="D35" s="15">
         <v>100</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="63">
         <v>425</v>
       </c>
-      <c r="F35" s="74"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="15">
         <f t="shared" si="0"/>
         <v>42500</v>
@@ -6237,8 +6237,8 @@
       <c r="D36" s="15">
         <v>50</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6254,8 +6254,8 @@
       <c r="D37" s="15">
         <v>20</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="65"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
       <c r="G37" s="15">
         <f>SUM(D37*E37)</f>
         <v>0</v>
@@ -6271,10 +6271,10 @@
       <c r="D38" s="15">
         <v>10</v>
       </c>
-      <c r="E38" s="65">
+      <c r="E38" s="74">
         <v>100</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="74"/>
       <c r="G38" s="15">
         <f t="shared" si="0"/>
         <v>1000</v>
@@ -6337,58 +6337,58 @@
       <c r="J42" s="6"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="63" t="s">
+      <c r="A43" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="63"/>
+      <c r="B43" s="73"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="63"/>
-      <c r="J43" s="63"/>
+      <c r="I43" s="73"/>
+      <c r="J43" s="73"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="64"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="64"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="64"/>
-      <c r="J45" s="64"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="64"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="64" t="s">
+      <c r="H46" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
@@ -6398,20 +6398,30 @@
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="59"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="A28:J28"/>
@@ -6424,24 +6434,14 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6467,177 +6467,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87">
+      <c r="A5" s="88">
         <v>1</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="86">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="79">
         <v>1650</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="86"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="87">
+      <c r="A7" s="88">
         <v>2</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="86">
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="79">
         <v>1980</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="86"/>
+      <c r="A8" s="88"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="87">
+      <c r="A9" s="88">
         <v>3</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="86">
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="79">
         <v>10538</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="86"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="87">
+      <c r="A11" s="88">
         <v>4</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="86">
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="79">
         <v>1100</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="86"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="86">
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="79">
         <f>SUM(G5:G12)</f>
         <v>15268</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="86"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="79"/>
     </row>
     <row r="23" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -6648,10 +6648,10 @@
       <c r="D25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="66"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
@@ -6666,8 +6666,8 @@
       <c r="D26" s="15">
         <v>1000</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="15">
         <f t="shared" ref="G26:G31" si="0">SUM(D26*E26)</f>
         <v>0</v>
@@ -6683,10 +6683,10 @@
       <c r="D27" s="15">
         <v>500</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="63">
         <v>30</v>
       </c>
-      <c r="F27" s="74"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="15">
         <f t="shared" si="0"/>
         <v>15000</v>
@@ -6702,8 +6702,8 @@
       <c r="D28" s="15">
         <v>100</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6719,10 +6719,10 @@
       <c r="D29" s="15">
         <v>50</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="63">
         <v>5</v>
       </c>
-      <c r="F29" s="74"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="15">
         <f t="shared" si="0"/>
         <v>250</v>
@@ -6738,8 +6738,8 @@
       <c r="D30" s="15">
         <v>20</v>
       </c>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
       <c r="G30" s="15">
         <f>SUM(D30*E30)</f>
         <v>0</v>
@@ -6755,10 +6755,10 @@
       <c r="D31" s="15">
         <v>10</v>
       </c>
-      <c r="E31" s="65">
+      <c r="E31" s="74">
         <v>2</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="74"/>
       <c r="G31" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6821,58 +6821,58 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="73"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="63" t="s">
+      <c r="H36" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="73"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -6882,29 +6882,12 @@
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A13:F14"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A23:J23"/>
@@ -6921,6 +6904,23 @@
     <mergeCell ref="B5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="B7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="71" orientation="portrait" r:id="rId1"/>
@@ -6952,63 +6952,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="20"/>
     </row>
     <row r="3" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
       <c r="K3" s="20"/>
     </row>
     <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="20"/>
     </row>
     <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -7018,8 +7018,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7034,10 +7034,10 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="48">
         <v>217</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
         <v>217000</v>
@@ -7053,10 +7053,10 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="55">
+      <c r="E7" s="48">
         <v>836</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
         <v>418000</v>
@@ -7072,10 +7072,10 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="48">
         <v>1040</v>
       </c>
-      <c r="F8" s="55"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
         <v>104000</v>
@@ -7091,10 +7091,10 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="48">
         <v>200</v>
       </c>
-      <c r="F9" s="55"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
         <v>10000</v>
@@ -7110,10 +7110,10 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="48">
         <v>300</v>
       </c>
-      <c r="F10" s="55"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
         <v>6000</v>
@@ -7131,10 +7131,10 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="55">
+      <c r="E11" s="48">
         <v>500</v>
       </c>
-      <c r="F11" s="55"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
         <v>5000</v>
@@ -7147,10 +7147,10 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="55"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="35"/>
       <c r="G12" s="31">
         <f>SUM(G6:G11)</f>
@@ -7206,35 +7206,35 @@
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="48" t="s">
+      <c r="H16" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="48"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -7246,11 +7246,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -7260,9 +7260,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -7349,63 +7349,63 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
       <c r="K30" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -7414,10 +7414,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -7432,10 +7432,10 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="55">
+      <c r="E33" s="48">
         <v>217</v>
       </c>
-      <c r="F33" s="55"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
         <v>217000</v>
@@ -7451,10 +7451,10 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="48">
         <v>836</v>
       </c>
-      <c r="F34" s="55"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
         <v>418000</v>
@@ -7470,10 +7470,10 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="55">
+      <c r="E35" s="48">
         <v>1040</v>
       </c>
-      <c r="F35" s="55"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
         <v>104000</v>
@@ -7489,10 +7489,10 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="48">
         <v>200</v>
       </c>
-      <c r="F36" s="55"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
         <v>10000</v>
@@ -7508,10 +7508,10 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="55">
+      <c r="E37" s="48">
         <v>300</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="48"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
         <v>6000</v>
@@ -7527,10 +7527,10 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="55">
+      <c r="E38" s="48">
         <v>500</v>
       </c>
-      <c r="F38" s="55"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
         <v>5000</v>
@@ -7543,10 +7543,10 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="57"/>
+      <c r="E39" s="58"/>
       <c r="F39" s="27"/>
       <c r="G39" s="36">
         <f>SUM(G33:G38)</f>
@@ -7602,35 +7602,35 @@
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="48" t="s">
+      <c r="H43" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="49"/>
+      <c r="D44" s="55"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="55"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -7642,11 +7642,11 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -7656,12 +7656,34 @@
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="H17:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
@@ -7674,28 +7696,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H43:J43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7718,8 +7718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7738,60 +7738,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:14" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
@@ -7800,8 +7800,8 @@
       <c r="D5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="34" t="s">
         <v>5</v>
       </c>
@@ -7816,13 +7816,13 @@
       <c r="D6" s="35">
         <v>1000</v>
       </c>
-      <c r="E6" s="55">
-        <v>366</v>
-      </c>
-      <c r="F6" s="55"/>
+      <c r="E6" s="48">
+        <v>200</v>
+      </c>
+      <c r="F6" s="48"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G11" si="0">SUM(D6*E6)</f>
-        <v>366000</v>
+        <v>200000</v>
       </c>
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
@@ -7835,13 +7835,13 @@
       <c r="D7" s="35">
         <v>500</v>
       </c>
-      <c r="E7" s="55">
-        <v>632</v>
-      </c>
-      <c r="F7" s="55"/>
+      <c r="E7" s="48">
+        <v>1965</v>
+      </c>
+      <c r="F7" s="48"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>316000</v>
+        <v>982500</v>
       </c>
       <c r="H7" s="33"/>
       <c r="I7" s="33"/>
@@ -7854,13 +7854,13 @@
       <c r="D8" s="35">
         <v>100</v>
       </c>
-      <c r="E8" s="55">
-        <v>1051</v>
-      </c>
-      <c r="F8" s="55"/>
+      <c r="E8" s="48">
+        <v>2019</v>
+      </c>
+      <c r="F8" s="48"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>105100</v>
+        <v>201900</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -7873,13 +7873,13 @@
       <c r="D9" s="35">
         <v>50</v>
       </c>
-      <c r="E9" s="55">
-        <v>178</v>
-      </c>
-      <c r="F9" s="55"/>
+      <c r="E9" s="48">
+        <v>140</v>
+      </c>
+      <c r="F9" s="48"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>7000</v>
       </c>
       <c r="H9" s="33"/>
       <c r="I9" s="33"/>
@@ -7892,13 +7892,13 @@
       <c r="D10" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="55">
-        <v>100</v>
-      </c>
-      <c r="F10" s="55"/>
+      <c r="E10" s="48">
+        <v>180</v>
+      </c>
+      <c r="F10" s="48"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="H10" s="33"/>
       <c r="I10" s="33"/>
@@ -7916,13 +7916,13 @@
       <c r="D11" s="35">
         <v>10</v>
       </c>
-      <c r="E11" s="55">
-        <v>200</v>
-      </c>
-      <c r="F11" s="55"/>
+      <c r="E11" s="48">
+        <v>500</v>
+      </c>
+      <c r="F11" s="48"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H11" s="33"/>
       <c r="I11" s="33"/>
@@ -7932,14 +7932,14 @@
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="39"/>
       <c r="G12" s="40">
         <f>SUM(G6:G11)</f>
-        <v>800000</v>
+        <v>1400000</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -7952,11 +7952,11 @@
       <c r="D13" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="91" t="s">
+      <c r="E13" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
       <c r="J13" s="33"/>
@@ -7983,47 +7983,47 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="32"/>
-      <c r="D16" s="48"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="24"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="32"/>
-      <c r="D17" s="48"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="32"/>
-      <c r="D18" s="48"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
@@ -8035,11 +8035,11 @@
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="33"/>
@@ -8049,9 +8049,9 @@
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -8138,61 +8138,61 @@
       <c r="J27" s="33"/>
     </row>
     <row r="28" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="45"/>
     </row>
     <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="53" t="str">
+      <c r="A31" s="46" t="str">
         <f>A4</f>
-        <v>Date: 24.06.2021</v>
-      </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
+        <v>Date: 01.07.2021</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -8201,10 +8201,10 @@
       <c r="D32" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="34" t="s">
         <v>5</v>
       </c>
@@ -8219,13 +8219,13 @@
       <c r="D33" s="27">
         <v>1000</v>
       </c>
-      <c r="E33" s="55">
-        <v>366</v>
-      </c>
-      <c r="F33" s="55"/>
+      <c r="E33" s="48">
+        <v>200</v>
+      </c>
+      <c r="F33" s="48"/>
       <c r="G33" s="27">
         <f t="shared" ref="G33:G38" si="1">SUM(D33*E33)</f>
-        <v>366000</v>
+        <v>200000</v>
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
@@ -8238,13 +8238,13 @@
       <c r="D34" s="27">
         <v>500</v>
       </c>
-      <c r="E34" s="55">
-        <v>632</v>
-      </c>
-      <c r="F34" s="55"/>
+      <c r="E34" s="48">
+        <v>1965</v>
+      </c>
+      <c r="F34" s="48"/>
       <c r="G34" s="27">
         <f t="shared" si="1"/>
-        <v>316000</v>
+        <v>982500</v>
       </c>
       <c r="H34" s="33"/>
       <c r="I34" s="33"/>
@@ -8257,13 +8257,13 @@
       <c r="D35" s="27">
         <v>100</v>
       </c>
-      <c r="E35" s="55">
-        <v>1051</v>
-      </c>
-      <c r="F35" s="55"/>
+      <c r="E35" s="48">
+        <v>2019</v>
+      </c>
+      <c r="F35" s="48"/>
       <c r="G35" s="27">
         <f t="shared" si="1"/>
-        <v>105100</v>
+        <v>201900</v>
       </c>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
@@ -8276,13 +8276,13 @@
       <c r="D36" s="27">
         <v>50</v>
       </c>
-      <c r="E36" s="55">
-        <v>178</v>
-      </c>
-      <c r="F36" s="55"/>
+      <c r="E36" s="48">
+        <v>140</v>
+      </c>
+      <c r="F36" s="48"/>
       <c r="G36" s="27">
         <f t="shared" si="1"/>
-        <v>8900</v>
+        <v>7000</v>
       </c>
       <c r="H36" s="33"/>
       <c r="I36" s="33"/>
@@ -8295,13 +8295,13 @@
       <c r="D37" s="27">
         <v>20</v>
       </c>
-      <c r="E37" s="55">
-        <v>100</v>
-      </c>
-      <c r="F37" s="55"/>
+      <c r="E37" s="48">
+        <v>180</v>
+      </c>
+      <c r="F37" s="48"/>
       <c r="G37" s="27">
         <f>SUM(D37*E37)</f>
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -8314,13 +8314,13 @@
       <c r="D38" s="27">
         <v>10</v>
       </c>
-      <c r="E38" s="55">
-        <v>200</v>
-      </c>
-      <c r="F38" s="55"/>
+      <c r="E38" s="48">
+        <v>500</v>
+      </c>
+      <c r="F38" s="48"/>
       <c r="G38" s="27">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="H38" s="33"/>
       <c r="I38" s="33"/>
@@ -8330,14 +8330,14 @@
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="90"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="41"/>
       <c r="G39" s="42">
         <f>SUM(G33:G38)</f>
-        <v>800000</v>
+        <v>1400000</v>
       </c>
       <c r="H39" s="33"/>
       <c r="I39" s="33"/>
@@ -8351,12 +8351,12 @@
         <f>D13</f>
         <v>Amount In Words :</v>
       </c>
-      <c r="E40" s="91" t="str">
+      <c r="E40" s="90" t="str">
         <f>E13</f>
-        <v>Eight Lac Taka Only.</v>
-      </c>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
+        <v>Fourteen Lac Taka Only.</v>
+      </c>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="33"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
@@ -8383,47 +8383,47 @@
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
     </row>
     <row r="43" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="24"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="48"/>
+      <c r="D43" s="49"/>
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="28"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="49"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
       <c r="B45" s="28"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="48"/>
+      <c r="D45" s="49"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
+      <c r="H45" s="49"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
@@ -8435,49 +8435,49 @@
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="50" t="s">
+      <c r="H46" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A29:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J18"/>
     <mergeCell ref="H46:J46"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A29:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J18"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
